--- a/Test_Overview/Autocalibration-Parametersweep-Testing.xlsx
+++ b/Test_Overview/Autocalibration-Parametersweep-Testing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="638" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="638" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="USAC-testing" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="595">
   <si>
     <t>Test USAC without correspondence aggregation and without refinement and BA</t>
   </si>
@@ -872,9 +872,6 @@
     <t>Use 150 frames per scene</t>
   </si>
   <si>
-    <t>Use ~500 Correspondences correspondences per image pair</t>
-  </si>
-  <si>
     <t>2 small/medium moving objects moving away from camera, same direction/parallel to camera, beginning depth is the same as the scene</t>
   </si>
   <si>
@@ -1169,22 +1166,6 @@
   <si>
     <t>Possibilities for
 useRANSAC_fewMatches</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">100-600 correspondences; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>use 70-200 for testing only useRANSAC_fewMatches</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">range 0.3-0.8, changes by 10-70% (res15%) in addition to 100% from frame to frame </t>
@@ -3177,6 +3158,31 @@
 3. Calculate the range [rRd, rtd] for the double differences of step 2
 4. Combine the angle and norm-t double differences by d = (Rd/rRd + td/rtd) / 2
 5. Calculate mean parameter values over smallest d-values (from smallest and largest tr values)  over all inlier change rates and stereo conf scenes and take the nearest integer value for minContStablePoses as best result</t>
+  </si>
+  <si>
+    <t>Use ~300 TP correspondences per image pair</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">30-500 TP correspondences; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>use 20-160 TP for testing only useRANSAC_fewMatches</t>
+    </r>
+  </si>
+  <si>
+    <t>relMinInlierRatSkip</t>
+  </si>
+  <si>
+    <t>0.4-0.8(0.1res)</t>
   </si>
 </sst>
 </file>
@@ -3333,6 +3339,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3345,23 +3362,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -3679,7 +3685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I211"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B46" sqref="B46:C46"/>
     </sheetView>
   </sheetViews>
@@ -3736,22 +3742,22 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3817,7 +3823,7 @@
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="30" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3828,7 +3834,7 @@
       <c r="B25">
         <v>8</v>
       </c>
-      <c r="C25" s="26"/>
+      <c r="C25" s="31"/>
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -3847,7 +3853,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3975,10 +3981,10 @@
       <c r="A46">
         <v>1</v>
       </c>
-      <c r="B46" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="C46" s="24"/>
+      <c r="B46" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="C46" s="29"/>
       <c r="D46">
         <f>8*5</f>
         <v>40</v>
@@ -3990,7 +3996,7 @@
         <v>74</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H46" t="s">
         <v>95</v>
@@ -4003,10 +4009,10 @@
       <c r="A47">
         <v>2</v>
       </c>
-      <c r="B47" s="23" t="s">
-        <v>465</v>
-      </c>
-      <c r="C47" s="24"/>
+      <c r="B47" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="C47" s="29"/>
       <c r="D47">
         <f>8*5</f>
         <v>40</v>
@@ -4018,7 +4024,7 @@
         <v>74</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>97</v>
@@ -4031,10 +4037,10 @@
       <c r="A48">
         <v>3</v>
       </c>
-      <c r="B48" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="C48" s="24"/>
+      <c r="B48" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="C48" s="29"/>
       <c r="D48">
         <f>8*5*B24*B25</f>
         <v>960</v>
@@ -4044,10 +4050,10 @@
         <v>48</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>158</v>
@@ -4058,17 +4064,17 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="24"/>
+      <c r="C49" s="29"/>
     </row>
     <row r="50" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D50">
         <f>8*5*$B$19*$B$27*$B$29</f>
@@ -4079,10 +4085,10 @@
         <v>48</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>98</v>
@@ -4096,10 +4102,10 @@
       <c r="A51">
         <v>5</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="24"/>
+      <c r="C51" s="29"/>
       <c r="D51">
         <f>$B$24*$B$25*2*5</f>
         <v>240</v>
@@ -4169,7 +4175,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -4204,10 +4210,10 @@
       <c r="A60">
         <v>7</v>
       </c>
-      <c r="B60" s="23" t="s">
-        <v>469</v>
-      </c>
-      <c r="C60" s="24"/>
+      <c r="B60" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="C60" s="29"/>
       <c r="D60">
         <f>8*5</f>
         <v>40</v>
@@ -4219,7 +4225,7 @@
         <v>74</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H60" t="s">
         <v>95</v>
@@ -4232,10 +4238,10 @@
       <c r="A61">
         <v>8</v>
       </c>
-      <c r="B61" s="23" t="s">
-        <v>470</v>
-      </c>
-      <c r="C61" s="24"/>
+      <c r="B61" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="C61" s="29"/>
       <c r="D61">
         <f>8*5</f>
         <v>40</v>
@@ -4247,7 +4253,7 @@
         <v>74</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>97</v>
@@ -4260,10 +4266,10 @@
       <c r="A62">
         <v>9</v>
       </c>
-      <c r="B62" s="23" t="s">
-        <v>471</v>
-      </c>
-      <c r="C62" s="24"/>
+      <c r="B62" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="C62" s="29"/>
       <c r="D62">
         <f>5*8*(2+2*B18)*B22*B23</f>
         <v>960</v>
@@ -4273,10 +4279,10 @@
         <v>48</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>160</v>
@@ -4290,10 +4296,10 @@
       <c r="A63">
         <v>10</v>
       </c>
-      <c r="B63" s="23" t="s">
-        <v>472</v>
-      </c>
-      <c r="C63" s="24"/>
+      <c r="B63" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="C63" s="29"/>
       <c r="D63">
         <f>5*8*(2+2*B18)*B22*B23</f>
         <v>960</v>
@@ -4303,10 +4309,10 @@
         <v>48</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>543</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>158</v>
@@ -4320,10 +4326,10 @@
       <c r="A64">
         <v>36</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="C64" s="23"/>
+      <c r="C64" s="28"/>
       <c r="D64">
         <f>5*$B$27*$B$29</f>
         <v>120</v>
@@ -4346,17 +4352,17 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="24"/>
+      <c r="C65" s="29"/>
     </row>
     <row r="66" spans="1:9" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>11</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D66">
         <f>5*8*$B$19*$B$28*$B$29</f>
@@ -4367,10 +4373,10 @@
         <v>24</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>98</v>
@@ -4384,10 +4390,10 @@
       <c r="A67">
         <v>12</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="24"/>
+      <c r="C67" s="29"/>
       <c r="D67">
         <f>2*(2+2*B18)*B22*B23</f>
         <v>48</v>
@@ -4488,7 +4494,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -4501,7 +4507,7 @@
         <v>32</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4946,7 +4952,7 @@
       </c>
       <c r="B103" s="18"/>
       <c r="C103" s="19" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D103" s="18">
         <f>$B$86*4*5*8</f>
@@ -4957,10 +4963,10 @@
         <v>8</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G103" s="19" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H103" s="18" t="s">
         <v>98</v>
@@ -4975,7 +4981,7 @@
       </c>
       <c r="B104" s="18"/>
       <c r="C104" s="19" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D104" s="18">
         <f>$B$86*4*5*8*$B$85</f>
@@ -4986,10 +4992,10 @@
         <v>16</v>
       </c>
       <c r="F104" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="G104" s="19" t="s">
         <v>546</v>
-      </c>
-      <c r="G104" s="19" t="s">
-        <v>548</v>
       </c>
       <c r="H104" s="18" t="s">
         <v>98</v>
@@ -5004,7 +5010,7 @@
       </c>
       <c r="B105" s="18"/>
       <c r="C105" s="19" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D105" s="18">
         <f>$B$86*4*5*8*$B$85</f>
@@ -5015,10 +5021,10 @@
         <v>16</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G105" s="19" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H105" s="18" t="s">
         <v>98</v>
@@ -5033,7 +5039,7 @@
       </c>
       <c r="B106" s="18"/>
       <c r="C106" s="19" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D106" s="18">
         <f>$B$86*4*5*8*$B$85</f>
@@ -5044,10 +5050,10 @@
         <v>16</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G106" s="19" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H106" s="18" t="s">
         <v>98</v>
@@ -5190,7 +5196,7 @@
       </c>
       <c r="B113" s="18"/>
       <c r="C113" s="19" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D113" s="18">
         <f>$B$84*4*8*5</f>
@@ -5201,7 +5207,7 @@
         <v>8</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G113" s="18"/>
       <c r="H113" s="18"/>
@@ -5213,7 +5219,7 @@
       </c>
       <c r="B114" s="18"/>
       <c r="C114" s="19" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D114" s="18">
         <f>$B$84*4*8*5*$B$85</f>
@@ -5224,7 +5230,7 @@
         <v>16</v>
       </c>
       <c r="F114" s="19" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G114" s="18"/>
       <c r="H114" s="18"/>
@@ -5236,7 +5242,7 @@
       </c>
       <c r="B115" s="18"/>
       <c r="C115" s="19" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D115" s="18">
         <f t="shared" ref="D115:D116" si="0">$B$84*4*8*5*$B$85</f>
@@ -5247,7 +5253,7 @@
         <v>16</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G115" s="18"/>
       <c r="H115" s="18"/>
@@ -5259,7 +5265,7 @@
       </c>
       <c r="B116" s="18"/>
       <c r="C116" s="19" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D116" s="18">
         <f t="shared" si="0"/>
@@ -5270,7 +5276,7 @@
         <v>16</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G116" s="18"/>
       <c r="H116" s="18"/>
@@ -5278,10 +5284,10 @@
     </row>
     <row r="117" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="18"/>
-      <c r="B117" s="27" t="s">
+      <c r="B117" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C117" s="28"/>
+      <c r="C117" s="27"/>
       <c r="D117" s="18"/>
       <c r="E117" s="18"/>
       <c r="F117" s="18"/>
@@ -5419,7 +5425,7 @@
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="18"/>
       <c r="B124" s="18" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C124" s="18"/>
       <c r="D124" s="18"/>
@@ -5645,12 +5651,12 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B146">
         <f>(((2*10+50)*$B$79*$B$80)*(3380+130*0.5*500+22*0.5*500))/(10^9)+((2*10+50)*$B$79*$B$80)*5/(10^6)</f>
@@ -5659,7 +5665,7 @@
     </row>
     <row r="147" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B147">
         <f>(((2*10+50)*$B$79*$B$80)*(120+45*0.5*500))/(10^9)</f>
@@ -5668,7 +5674,7 @@
     </row>
     <row r="148" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -5676,7 +5682,7 @@
     </row>
     <row r="149" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B149">
         <f>((2*10+50)*$B$79*$B$80*$B$82)*(1180+554*500)/(10^9)+((2*10+50)*$B$79*$B$80*$B$82)*5/(10^6)</f>
@@ -5685,7 +5691,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B150">
         <f>((2*10+50)*$B$79*$B$80*$B$82)*(115+500*(6+(2*5+10)+2*(2*8+12+8+5+3+4)))/(10^9)</f>
@@ -5694,7 +5700,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B151">
         <f>((2*10+50)*$B$88)*(5*8*20+3*20+2*20+2*20+200)/(10^9)</f>
@@ -5703,7 +5709,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B152">
         <f>(20*$B$88)*(5*8*20+10*20+200)/(10^9)</f>
@@ -5712,7 +5718,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B153">
         <f>($D$122)*250/(10^6)</f>
@@ -5721,7 +5727,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B154">
         <f>($E$122)/1000</f>
@@ -5739,12 +5745,12 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B158">
         <v>30</v>
@@ -5752,7 +5758,7 @@
     </row>
     <row r="159" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B159">
         <f>1000*(1280*720+200)/(10^9)</f>
@@ -5761,7 +5767,7 @@
     </row>
     <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B160">
         <f>((50*$B$28*$B$29*$B$31*$B$30)*(3380+130*0.5*500+22*0.5*500))/(10^9)+(50*$B$28*$B$29*$B$31*$B$30)*5/(10^6)</f>
@@ -5770,7 +5776,7 @@
     </row>
     <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B161">
         <f>((50*$B$28*$B$29*$B$31*$B$30)*(120+45*0.5*500))/(10^9)</f>
@@ -5779,7 +5785,7 @@
     </row>
     <row r="162" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -5787,7 +5793,7 @@
     </row>
     <row r="163" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B163">
         <f>(50*$B$31*$B$29*$B$28*$B$27*$B$30)*(1180+554*500)/(10^9)+(50*$B$31*$B$29*$B$28*$B$27*$B$30)*5/(10^6)</f>
@@ -5796,7 +5802,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B164">
         <f>(50*$B$31*$B$29*$B$28*$B$27*$B$30)*(115+500*(6+(2*5+10)+2*(2*8+12+8+5+3+4)))/(10^9)</f>
@@ -5805,7 +5811,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B165">
         <f>(50*$B$35+50*$B$37)*(5*8*20+3*20+2*20+2*20+200)/(10^9)</f>
@@ -5814,7 +5820,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B166">
         <f>(8*$B$37+6*$B$35)*(5*8*20+10*20+200)/(10^9)</f>
@@ -5823,7 +5829,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B167">
         <f>($D$71+$D$54)*250/(10^6)</f>
@@ -5832,7 +5838,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B168">
         <f>($E$54+$E$71)/1000</f>
@@ -6240,6 +6246,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B61:C61"/>
@@ -6247,13 +6260,6 @@
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6316,12 +6322,12 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6357,7 +6363,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -6459,10 +6465,10 @@
       <c r="A33">
         <v>1</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>483</v>
-      </c>
-      <c r="C33" s="24"/>
+      <c r="B33" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="C33" s="29"/>
       <c r="D33">
         <f>8*5</f>
         <v>40</v>
@@ -6474,7 +6480,7 @@
         <v>74</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H33" t="s">
         <v>95</v>
@@ -6487,10 +6493,10 @@
       <c r="A34">
         <v>2</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>484</v>
-      </c>
-      <c r="C34" s="24"/>
+      <c r="B34" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="C34" s="29"/>
       <c r="D34">
         <f>8*5</f>
         <v>40</v>
@@ -6502,7 +6508,7 @@
         <v>74</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>97</v>
@@ -6515,10 +6521,10 @@
       <c r="A35">
         <v>3</v>
       </c>
-      <c r="B35" s="23" t="s">
-        <v>485</v>
-      </c>
-      <c r="C35" s="24"/>
+      <c r="B35" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="C35" s="29"/>
       <c r="D35">
         <f>8*5*2</f>
         <v>80</v>
@@ -6528,10 +6534,10 @@
         <v>4</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>158</v>
@@ -6545,10 +6551,10 @@
       <c r="A36">
         <v>7</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="C36" s="23"/>
+      <c r="C36" s="28"/>
       <c r="D36">
         <f>5*$B$17*$B$19</f>
         <v>120</v>
@@ -6571,17 +6577,17 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="24"/>
+      <c r="C37" s="29"/>
     </row>
     <row r="38" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D38">
         <f>8*5*$B$19*$B$17*$B$15</f>
@@ -6592,10 +6598,10 @@
         <v>48</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>98</v>
@@ -6609,10 +6615,10 @@
       <c r="A39">
         <v>5</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="24"/>
+      <c r="C39" s="29"/>
       <c r="D39">
         <f>2*2*5</f>
         <v>20</v>
@@ -6639,7 +6645,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6</v>
       </c>
@@ -6682,7 +6688,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -6902,7 +6908,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B72">
         <f>50*$B$24*(5*8*20+3*20+2*20+2*20+200)/(10^9)</f>
@@ -6911,7 +6917,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B73">
         <f>6*$B$24*(5*8*20+10*20+200)/(10^9)</f>
@@ -6920,7 +6926,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B74">
         <f>$D$42*250/(10^6)</f>
@@ -6929,7 +6935,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B75">
         <f>$E$42/1000</f>
@@ -6962,7 +6968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B34" sqref="B34:C34"/>
     </sheetView>
   </sheetViews>
@@ -7014,12 +7020,12 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -7066,7 +7072,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -7174,10 +7180,10 @@
       <c r="A34">
         <v>1</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>488</v>
-      </c>
-      <c r="C34" s="24"/>
+      <c r="B34" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="C34" s="29"/>
       <c r="D34">
         <f>8*5+5*5</f>
         <v>65</v>
@@ -7190,7 +7196,7 @@
         <v>74</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>168</v>
@@ -7200,17 +7206,17 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="24"/>
+      <c r="C35" s="29"/>
     </row>
     <row r="36" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D36">
         <f>(8*5+5*5)*$B$18*$B$20</f>
@@ -7221,10 +7227,10 @@
         <v>72</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>98</v>
@@ -7237,10 +7243,10 @@
       <c r="A37">
         <v>3</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="C37" s="24"/>
+      <c r="C37" s="29"/>
       <c r="D37">
         <v>2</v>
       </c>
@@ -7284,7 +7290,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -7509,7 +7515,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B70">
         <f>50*$B$26*(5*8*20+3*20+2*20+2*20+200)/(10^9)</f>
@@ -7518,7 +7524,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B71">
         <f>3*$B$26*(5*8*20+10*20+200)/(10^9)</f>
@@ -7527,7 +7533,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B72">
         <f>$D$38*250/(10^6)</f>
@@ -7536,7 +7542,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B73">
         <f>$E$38/1000</f>
@@ -7618,12 +7624,12 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -7681,7 +7687,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -7775,10 +7781,10 @@
       <c r="A35">
         <v>1</v>
       </c>
-      <c r="B35" s="23" t="s">
-        <v>491</v>
-      </c>
-      <c r="C35" s="24"/>
+      <c r="B35" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="C35" s="29"/>
       <c r="D35">
         <f>8*5</f>
         <v>40</v>
@@ -7791,7 +7797,7 @@
         <v>74</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>97</v>
@@ -7804,10 +7810,10 @@
       <c r="A36">
         <v>2</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="C36" s="23"/>
+      <c r="C36" s="28"/>
       <c r="D36">
         <f>5+$B$21*$B$22</f>
         <v>11</v>
@@ -7830,17 +7836,17 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="C37" s="24"/>
+      <c r="C37" s="29"/>
     </row>
     <row r="38" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D38">
         <f>8*5*$B$21*$B$20*$B$22</f>
@@ -7851,10 +7857,10 @@
         <v>96</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>98</v>
@@ -7867,10 +7873,10 @@
       <c r="A39">
         <v>4</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="C39" s="24"/>
+      <c r="C39" s="29"/>
       <c r="D39">
         <v>2</v>
       </c>
@@ -7914,7 +7920,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -8134,7 +8140,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B71">
         <f>50*$B$27*(5*8*20+3*20+2*20+2*20+200)/(10^9)</f>
@@ -8143,7 +8149,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B72">
         <f>4*$B$27*(5*8*20+10*20+200)/(10^9)</f>
@@ -8152,7 +8158,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B73">
         <f>$D$40*250/(10^6)</f>
@@ -8161,7 +8167,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B74">
         <f>$E$40/1000</f>
@@ -8234,7 +8240,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -8279,12 +8285,12 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8331,7 +8337,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -8439,10 +8445,10 @@
       <c r="A41">
         <v>1</v>
       </c>
-      <c r="B41" s="23" t="s">
-        <v>488</v>
-      </c>
-      <c r="C41" s="24"/>
+      <c r="B41" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="C41" s="29"/>
       <c r="D41">
         <f>8*5+5*5</f>
         <v>65</v>
@@ -8455,7 +8461,7 @@
         <v>74</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>168</v>
@@ -8465,17 +8471,17 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="C42" s="24"/>
+      <c r="C42" s="29"/>
     </row>
     <row r="43" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D43">
         <f>(8*5+5*5)*$B$25*$B$27</f>
@@ -8486,10 +8492,10 @@
         <v>72</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>98</v>
@@ -8502,10 +8508,10 @@
       <c r="A44">
         <v>3</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="C44" s="24"/>
+      <c r="C44" s="29"/>
       <c r="D44">
         <v>1</v>
       </c>
@@ -8549,7 +8555,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -8774,7 +8780,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B77">
         <f>50*$B$33*(5*8*20+3*20+2*20+2*20+200)/(10^9)</f>
@@ -8783,7 +8789,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B78">
         <f>3*$B$33*(5*8*20+10*20+200)/(10^9)</f>
@@ -8792,7 +8798,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B79">
         <f>$D$45*250/(10^6)</f>
@@ -8801,7 +8807,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B80">
         <f>$E$45/1000</f>
@@ -8831,8 +8837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I133"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8878,12 +8884,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -8893,27 +8899,27 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -8938,20 +8944,20 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
+      <c r="A22" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
@@ -8960,14 +8966,14 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -8984,50 +8990,50 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B29">
         <f>(15-1)/2+1</f>
         <v>8</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B30">
         <f>(1000-200)/100+1+(2000-1000)/200+(5000-2000)/500+(10000-5000)/1000+(20000-10000)/2000+(30000-20000)/5000</f>
         <v>32</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B31">
         <f>(0.8-0.1)/0.1+1</f>
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B32">
         <f>(300-20)/20+1</f>
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -9047,7 +9053,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -9086,7 +9092,7 @@
     </row>
     <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B41">
         <f>$B$29*$B$30*$B$34*$B$36*$B$38</f>
@@ -9095,7 +9101,7 @@
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B42">
         <f>$B$31*$B$32*$B$34*$B$36*$B$38</f>
@@ -9104,7 +9110,7 @@
     </row>
     <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B43">
         <f>$B$34*3</f>
@@ -9137,7 +9143,7 @@
     </row>
     <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>91</v>
@@ -9162,10 +9168,10 @@
       <c r="A51">
         <v>1</v>
       </c>
-      <c r="B51" s="23" t="s">
-        <v>494</v>
-      </c>
-      <c r="C51" s="24"/>
+      <c r="B51" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="C51" s="29"/>
       <c r="D51">
         <f>8*5</f>
         <v>40</v>
@@ -9175,10 +9181,10 @@
         <v>8</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>97</v>
@@ -9188,17 +9194,17 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="C52" s="24"/>
+      <c r="B52" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C52" s="29"/>
     </row>
     <row r="53" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D53">
         <f>8*5*$B$34*$B$36</f>
@@ -9209,10 +9215,10 @@
         <v>48</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>98</v>
@@ -9226,7 +9232,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D54">
         <f>8*5*$B$34*$B$36</f>
@@ -9237,10 +9243,10 @@
         <v>48</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>98</v>
@@ -9254,7 +9260,7 @@
         <v>4</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D55">
         <f>8*$B$34*$B$36*$B$29</f>
@@ -9265,7 +9271,7 @@
         <v>48</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="300" x14ac:dyDescent="0.25">
@@ -9273,7 +9279,7 @@
         <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D56">
         <f>8*$B$34*$B$36*$B$29</f>
@@ -9284,10 +9290,10 @@
         <v>48</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H56" t="s">
         <v>98</v>
@@ -9300,10 +9306,10 @@
       <c r="A57">
         <v>6</v>
       </c>
-      <c r="B57" s="23" t="s">
-        <v>497</v>
-      </c>
-      <c r="C57" s="24"/>
+      <c r="B57" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="C57" s="29"/>
       <c r="D57">
         <f>5*8*$B$29</f>
         <v>320</v>
@@ -9313,17 +9319,17 @@
         <v>2</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7</v>
       </c>
-      <c r="B58" s="23" t="s">
-        <v>498</v>
-      </c>
-      <c r="C58" s="24"/>
+      <c r="B58" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="C58" s="29"/>
       <c r="D58">
         <f>5*8</f>
         <v>40</v>
@@ -9332,17 +9338,17 @@
         <v>2</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="213" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>8</v>
       </c>
-      <c r="B59" s="23" t="s">
-        <v>499</v>
-      </c>
-      <c r="C59" s="23"/>
+      <c r="B59" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="C59" s="28"/>
       <c r="D59">
         <f>5*8</f>
         <v>40</v>
@@ -9351,10 +9357,10 @@
         <v>2</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H59" t="s">
         <v>98</v>
@@ -9367,10 +9373,10 @@
       <c r="A60">
         <v>9</v>
       </c>
-      <c r="B60" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="C60" s="24"/>
+      <c r="B60" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="C60" s="29"/>
       <c r="D60">
         <f>5*$B$29*$B$30</f>
         <v>1280</v>
@@ -9380,17 +9386,17 @@
         <v>256</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>10</v>
       </c>
-      <c r="B61" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="C61" s="24"/>
+      <c r="B61" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" s="29"/>
       <c r="D61">
         <f>5*$B$29*$B$30</f>
         <v>1280</v>
@@ -9400,10 +9406,10 @@
         <v>256</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="H61" t="s">
         <v>98</v>
@@ -9436,12 +9442,12 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -9450,11 +9456,11 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
+      <c r="A68" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
       <c r="D68" s="1" t="s">
         <v>91</v>
       </c>
@@ -9478,10 +9484,10 @@
       <c r="A69">
         <v>11</v>
       </c>
-      <c r="B69" s="23" t="s">
-        <v>494</v>
-      </c>
-      <c r="C69" s="24"/>
+      <c r="B69" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="C69" s="29"/>
       <c r="D69">
         <f>8*5</f>
         <v>40</v>
@@ -9494,7 +9500,7 @@
         <v>74</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>97</v>
@@ -9504,17 +9510,17 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="C70" s="24"/>
+      <c r="B70" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C70" s="29"/>
     </row>
     <row r="71" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>12</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D71">
         <f>8*5*$B$34*$B$36</f>
@@ -9525,10 +9531,10 @@
         <v>48</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>98</v>
@@ -9541,10 +9547,10 @@
       <c r="A72">
         <v>13</v>
       </c>
-      <c r="B72" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="C72" s="24"/>
+      <c r="B72" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="C72" s="29"/>
       <c r="D72">
         <f>5*$B$31*$B$32</f>
         <v>600</v>
@@ -9554,10 +9560,10 @@
         <v>120</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>98</v>
@@ -9590,7 +9596,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -9599,11 +9605,11 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
+      <c r="A78" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
       <c r="D78" s="1" t="s">
         <v>91</v>
       </c>
@@ -9627,10 +9633,10 @@
       <c r="A79">
         <v>14</v>
       </c>
-      <c r="B79" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="C79" s="24"/>
+      <c r="B79" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="C79" s="29"/>
       <c r="D79">
         <f>$B$34*8*5</f>
         <v>320</v>
@@ -9640,13 +9646,13 @@
         <v>16</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -9656,10 +9662,10 @@
       <c r="A80">
         <v>15</v>
       </c>
-      <c r="B80" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="C80" s="24"/>
+      <c r="B80" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="C80" s="29"/>
       <c r="D80">
         <v>1</v>
       </c>
@@ -9691,7 +9697,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -9749,7 +9755,7 @@
     </row>
     <row r="92" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B92">
         <f>150*$B$41*1</f>
@@ -9766,7 +9772,7 @@
     </row>
     <row r="93" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B93">
         <f>150*$B$42*1</f>
@@ -9783,7 +9789,7 @@
     </row>
     <row r="94" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B94">
         <f>50*$B$34*2</f>
@@ -9800,7 +9806,7 @@
     </row>
     <row r="96" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B96">
         <f>10*$B$41*0.1</f>
@@ -9817,7 +9823,7 @@
     </row>
     <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B97">
         <f>3*$B$42*0.1</f>
@@ -9834,7 +9840,7 @@
     </row>
     <row r="98" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B98">
         <f>2*$B$43*0.1</f>
@@ -9851,7 +9857,7 @@
     </row>
     <row r="99" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B99">
         <f>$D$62*0.2</f>
@@ -9868,7 +9874,7 @@
     </row>
     <row r="100" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B100">
         <f>$D$73*0.2</f>
@@ -9885,7 +9891,7 @@
     </row>
     <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B101">
         <f>$D$81*0.2</f>
@@ -9902,7 +9908,7 @@
     </row>
     <row r="102" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B102">
         <f>$E$62*12</f>
@@ -9919,7 +9925,7 @@
     </row>
     <row r="103" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B103">
         <f>$E$73*12</f>
@@ -9936,7 +9942,7 @@
     </row>
     <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B104">
         <f>$E$81*12</f>
@@ -10081,7 +10087,7 @@
     </row>
     <row r="124" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B124">
         <f>((150*$B$35*$B$36*$B$38*$B$37)*(3380+130*0.5*500+22*0.5*500))/(10^9)+(150*$B$35*$B$36*$B$38*$B$37)*5/(10^6)</f>
@@ -10090,7 +10096,7 @@
     </row>
     <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B125">
         <f>((150*$B$35*$B$36*$B$38*$B$37)*(120+45*0.5*500))/(10^9)</f>
@@ -10099,7 +10105,7 @@
     </row>
     <row r="126" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B126">
         <f>150*2*B35*B36*B37*B38*(120+45*0.2*500)/(10^9)</f>
@@ -10108,7 +10114,7 @@
     </row>
     <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B127">
         <f>(150*$B$38*$B$36*$B$35*$B$34*$B$37)*(1180+554*500)/(10^9)+(150*$B$38*$B$36*$B$35*$B$34*$B$37)*5/(10^6)</f>
@@ -10117,7 +10123,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B128">
         <f>(150*$B$38*$B$36*$B$35*$B$34*$B$37)*(115+500*(6+(2*5+10)+2*(2*8+12+8+5+3+4)))/(10^9)</f>
@@ -10126,7 +10132,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B129">
         <f>(150*$B$41+150*$B$42+50*$B$34)*(5*8*20+3*20+2*20+2*20+200)/(10^9)</f>
@@ -10135,7 +10141,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B130">
         <f>(10*$B$41+3*$B$42+2*$B$43)*(5*8*20+10*20+200)/(10^9)</f>
@@ -10144,7 +10150,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B131">
         <f>($D$73+$D$62+$D$81)*250/(10^6)</f>
@@ -10153,7 +10159,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B132">
         <f>($E$62+$E$73+$E$81)/1000</f>
@@ -10171,13 +10177,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
     <mergeCell ref="A78:C78"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B80:C80"/>
@@ -10186,6 +10185,13 @@
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="A68:C68"/>
     <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10194,10 +10200,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I221"/>
+  <dimension ref="A1:I222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10213,7 +10219,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -10238,7 +10244,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -10248,67 +10254,67 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -10318,7 +10324,7 @@
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B27">
         <f>(3.5-0.5)/1+1</f>
@@ -10333,7 +10339,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -10344,7 +10350,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -10355,7 +10361,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>307</v>
+        <v>592</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -10367,1279 +10373,1262 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="D32" s="23"/>
+      <c r="C32" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="D32" s="28"/>
     </row>
     <row r="33" spans="1:4" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B33">
         <v>14</v>
       </c>
-      <c r="C33" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="D33" s="23"/>
+      <c r="C33" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="D33" s="28"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B35">
         <f>(0.5-0.1)/0.1+1</f>
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B36">
         <f>(0.55-0.05)/0.1+1</f>
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B37">
         <f>(0.55-0.1)/0.075+1</f>
         <v>7.0000000000000009</v>
       </c>
       <c r="C37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B38">
         <f>(0.8-0.3)/0.1+1</f>
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>331</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>593</v>
+      </c>
+      <c r="B39">
+        <f>(0.8-0.4)/0.1+1</f>
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>294</v>
-      </c>
-      <c r="B41">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>293</v>
+      </c>
+      <c r="B42">
         <v>6</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="12"/>
+      <c r="C42" s="12" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>345</v>
-      </c>
       <c r="C43" s="12"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>302</v>
-      </c>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>343</v>
+      </c>
+      <c r="C44" s="12"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>292</v>
-      </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>294</v>
+      </c>
+      <c r="B48">
         <f>(0.75-0.25)/0.1+1</f>
         <v>6</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>297</v>
-      </c>
-      <c r="B48">
+      <c r="B49">
         <f>(0.5-0.05)/0.075+1</f>
         <v>7</v>
       </c>
-      <c r="C48" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>298</v>
+      <c r="C49" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>299</v>
-      </c>
-      <c r="B52">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>298</v>
+      </c>
+      <c r="B53">
         <v>2</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B55">
-        <f>$B$35*$B$36*$B$37*$B$38*$B$27*$B$29*$B$31*$B$32</f>
-        <v>241920.00000000006</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="B56">
-        <f>$B$41*$B$27*$B$29*$B$31*$B$32</f>
-        <v>1152</v>
+        <f>$B$35*$B$36*$B$37*$B$38*$B$27*$B$29*$B$31*$B$32*$B$39</f>
+        <v>1209600.0000000002</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="B57">
+        <f>$B$42*$B$27*$B$29*$B$31*$B$32</f>
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B58">
         <f>$B$27*$B$29*$B$31*$B$32</f>
         <v>192</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B58">
-        <f>$B$46*$B$47*$B$48*$B$27*$B$29*$B$31*$B$32</f>
-        <v>24192</v>
-      </c>
-    </row>
     <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B59">
-        <f>$B$52*$B$27*$B$29*$B$31*$B$32</f>
-        <v>384</v>
+        <f>$B$47*$B$48*$B$49*$B$27*$B$29*$B$31*$B$32</f>
+        <v>24192</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B60">
+        <f>$B$53*$B$27*$B$29*$B$31*$B$32</f>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B61">
         <f>$B$27*$B$29*$B$31*$B$33</f>
         <v>672</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-    </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-    </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" t="s">
-        <v>171</v>
-      </c>
+      <c r="A65" s="4"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-    </row>
-    <row r="68" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F69" t="s">
+        <v>92</v>
+      </c>
+      <c r="G69" t="s">
+        <v>93</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C70" s="15"/>
+    </row>
+    <row r="71" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F68" t="s">
-        <v>92</v>
-      </c>
-      <c r="G68" t="s">
-        <v>93</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
+      <c r="G71" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C69" s="15"/>
-    </row>
-    <row r="70" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="I70">
+      <c r="I71">
         <f>$B$32+1</f>
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="72" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>2</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D71">
+      <c r="C72" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D72">
         <v>0</v>
       </c>
-      <c r="E71">
+      <c r="E72">
         <v>0</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F72" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="I71">
+      <c r="I72">
         <f>$B$29*$B$32+$B$29</f>
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="73" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>3</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="D72">
+      <c r="C73" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D73">
         <v>0</v>
       </c>
-      <c r="E72">
+      <c r="E73">
         <v>0</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="I72">
+      <c r="F73" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I73">
         <f>$B$27*$B$32+$B$27+1</f>
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
+    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C73" s="1"/>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>4</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D74">
+      <c r="H75" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>5</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D77">
         <v>0</v>
       </c>
-      <c r="E74">
+      <c r="E77">
         <v>0</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="I74">
+      <c r="F77" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I77">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="1:9" ht="255" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>5</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D76">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D78">
+        <f>SUM(D71:D77)</f>
         <v>0</v>
       </c>
-      <c r="E76">
+      <c r="E78">
+        <f>SUM(E71:E77)</f>
         <v>0</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="I76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C77" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D77">
-        <f>SUM(D70:D76)</f>
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <f>SUM(E70:E76)</f>
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <f>SUM(I70:I76)</f>
+      <c r="I78">
+        <f>SUM(I71:I77)</f>
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>329</v>
+        <v>502</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D86" s="1" t="s">
+    <row r="87" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F87" t="s">
         <v>92</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G87" t="s">
         <v>93</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="I87" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C87" s="15"/>
-    </row>
-    <row r="88" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C88" s="15"/>
+    </row>
+    <row r="89" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>6</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D88">
+      <c r="C89" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D89">
         <f>$B$32*5*8</f>
         <v>160</v>
       </c>
-      <c r="E88">
+      <c r="E89">
         <f>$B$32*2</f>
         <v>8</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="I88">
+      <c r="F89" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I89">
         <f>$B$32+1</f>
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="90" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>7</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D89">
-        <f>5*8*$B$41*$B$32</f>
+      <c r="C90" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D90">
+        <f>5*8*$B$42*$B$32</f>
         <v>960</v>
       </c>
-      <c r="E89">
-        <f>2*$B$41*$B$32</f>
+      <c r="E90">
+        <f>2*$B$42*$B$32</f>
         <v>48</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I89">
+      <c r="F90" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I90">
         <f>$B$29*$B$32+1</f>
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="91" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>8</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="D90">
-        <f>5*8*$B$41*$B$32</f>
+      <c r="C91" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D91">
+        <f>5*8*$B$42*$B$32</f>
         <v>960</v>
       </c>
-      <c r="E90">
-        <f>2*$B$41*$B$32</f>
+      <c r="E91">
+        <f>2*$B$42*$B$32</f>
         <v>48</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I90">
+      <c r="F91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I91">
         <f>$B$27*$B$32+2</f>
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="240" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="92" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>9</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="D91">
-        <f>5*8*$B$41*$B$32</f>
+      <c r="C92" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D92">
+        <f>5*8*$B$42*$B$32</f>
         <v>960</v>
       </c>
-      <c r="E91">
-        <f>2*$B$41*$B$32</f>
+      <c r="E92">
+        <f>2*$B$42*$B$32</f>
         <v>48</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I91">
+      <c r="F92" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I92">
         <f>$B$29*$B$32+3</f>
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>10</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D92">
+      <c r="C93" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D93">
         <v>1</v>
       </c>
-      <c r="E92">
+      <c r="E93">
         <v>1</v>
       </c>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C93" s="5" t="s">
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C94" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D93">
-        <f>SUM(D88:D92)</f>
+      <c r="D94">
+        <f>SUM(D89:D93)</f>
         <v>3041</v>
       </c>
-      <c r="E93">
-        <f>SUM(E88:E92)</f>
+      <c r="E94">
+        <f>SUM(E89:E93)</f>
         <v>153</v>
       </c>
-      <c r="I93">
-        <f>SUM(I88:I92)</f>
+      <c r="I94">
+        <f>SUM(I89:I93)</f>
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>329</v>
+        <v>507</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D100" s="1" t="s">
+    <row r="101" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F101" t="s">
         <v>92</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G101" t="s">
         <v>93</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="H101" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="I101" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="102" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>11</v>
       </c>
-      <c r="B101" s="23" t="s">
-        <v>510</v>
-      </c>
-      <c r="C101" s="23"/>
-      <c r="D101">
+      <c r="B102" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="C102" s="28"/>
+      <c r="D102">
         <f>5*8*$B$32</f>
         <v>160</v>
       </c>
-      <c r="E101">
+      <c r="E102">
         <f>2*$B$32</f>
         <v>8</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="I101">
+      <c r="F102" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I102">
         <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>12</v>
-      </c>
-      <c r="B102" s="23" t="s">
-        <v>511</v>
-      </c>
-      <c r="C102" s="23"/>
-      <c r="D102">
-        <f>5*8*$B$41*$B$32</f>
-        <v>960</v>
-      </c>
-      <c r="E102">
-        <f>2*$B$41*$B$32</f>
-        <v>48</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I102">
-        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>13</v>
-      </c>
-      <c r="B103" s="23" t="s">
-        <v>512</v>
-      </c>
-      <c r="C103" s="23"/>
+        <v>12</v>
+      </c>
+      <c r="B103" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="C103" s="28"/>
       <c r="D103">
-        <f>5*8*$B$41*$B$32</f>
+        <f>5*8*$B$42*$B$32</f>
         <v>960</v>
       </c>
       <c r="E103">
-        <f>2*$B$41*$B$32</f>
+        <f>2*$B$42*$B$32</f>
         <v>48</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A104">
+        <v>13</v>
+      </c>
+      <c r="B104" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="C104" s="28"/>
+      <c r="D104">
+        <f>5*8*$B$42*$B$32</f>
+        <v>960</v>
+      </c>
+      <c r="E104">
+        <f>2*$B$42*$B$32</f>
+        <v>48</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>14</v>
       </c>
-      <c r="B104" s="23" t="s">
-        <v>513</v>
-      </c>
-      <c r="C104" s="23"/>
-      <c r="D104">
-        <f>5*8*$B$41*$B$32</f>
+      <c r="B105" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="C105" s="28"/>
+      <c r="D105">
+        <f>5*8*$B$42*$B$32</f>
         <v>960</v>
       </c>
-      <c r="E104">
-        <f>2*$B$41*$B$32</f>
+      <c r="E105">
+        <f>2*$B$42*$B$32</f>
         <v>48</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C105" s="5" t="s">
+      <c r="F105" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C106" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D105">
-        <f>SUM(D101:D104)</f>
+      <c r="D106">
+        <f>SUM(D102:D105)</f>
         <v>3040</v>
       </c>
-      <c r="E105">
-        <f>SUM(E101:E104)</f>
+      <c r="E106">
+        <f>SUM(E102:E105)</f>
         <v>152</v>
       </c>
-      <c r="I105">
-        <f>SUM(I101:I104)</f>
+      <c r="I106">
+        <f>SUM(I102:I105)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>329</v>
+        <v>512</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D113" s="1" t="s">
+    <row r="114" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F114" t="s">
         <v>92</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G114" t="s">
         <v>93</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="H114" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I113" s="1" t="s">
+      <c r="I114" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B114" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C114" s="15"/>
-    </row>
-    <row r="115" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row r="115" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C115" s="15"/>
+    </row>
+    <row r="116" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>15</v>
       </c>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D115">
+      <c r="B116" s="1"/>
+      <c r="C116" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D116">
         <f>5*$B$32</f>
         <v>20</v>
       </c>
-      <c r="E115">
+      <c r="E116">
         <f>$B$32</f>
         <v>4</v>
       </c>
-      <c r="F115" t="s">
-        <v>350</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="I115">
+      <c r="F116" t="s">
+        <v>348</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I116">
         <f>$B$32+$B$32*2+$B$32</f>
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row r="117" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>16</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D116">
+      <c r="C117" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D117">
         <f>5*8*$B$32</f>
         <v>160</v>
       </c>
-      <c r="E116">
+      <c r="E117">
         <f>2*$B$32</f>
         <v>8</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="I116">
+      <c r="F117" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I117">
         <f>2*$B$32+2*$B$31+4</f>
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="285" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row r="118" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>17</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D117">
-        <f>5*8*$B$41*$B$32</f>
+      <c r="C118" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D118">
+        <f>5*8*$B$42*$B$32</f>
         <v>960</v>
       </c>
-      <c r="E117">
-        <f>2*$B$41*$B$32</f>
+      <c r="E118">
+        <f>2*$B$42*$B$32</f>
         <v>48</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="I117">
+      <c r="F118" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I118">
         <f>2*$B$29+2</f>
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="300" x14ac:dyDescent="0.25">
-      <c r="A118">
+    <row r="119" spans="1:9" ht="300" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>18</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="D118">
-        <f>5*8*$B$41*$B$32</f>
+      <c r="C119" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D119">
+        <f>5*8*$B$42*$B$32</f>
         <v>960</v>
       </c>
-      <c r="E118">
-        <f>2*$B$41*$B$32</f>
+      <c r="E119">
+        <f>2*$B$42*$B$32</f>
         <v>48</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I118">
+      <c r="F119" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I119">
         <f>2*$B$27+2</f>
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A119">
+    <row r="120" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>19</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D119">
-        <f>5*8*$B$41*$B$32</f>
+      <c r="C120" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D120">
+        <f>5*8*$B$42*$B$32</f>
         <v>960</v>
       </c>
-      <c r="E119">
-        <f>2*$B$41*$B$32</f>
+      <c r="E120">
+        <f>2*$B$42*$B$32</f>
         <v>48</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-    </row>
-    <row r="120" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="F120" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+    </row>
+    <row r="121" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>20</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D120">
+      <c r="C121" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D121">
         <f>5*$B$32</f>
         <v>20</v>
       </c>
-      <c r="E120">
+      <c r="E121">
         <f>$B$32</f>
         <v>4</v>
       </c>
-      <c r="F120" t="s">
-        <v>350</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="I120">
+      <c r="F121" t="s">
+        <v>348</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I121">
         <f>$B$32+$B$32*2+$B$32</f>
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A121">
+    <row r="122" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>21</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="D121">
+      <c r="C122" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D122">
         <f>5*8*$B$32</f>
         <v>160</v>
       </c>
-      <c r="E121">
+      <c r="E122">
         <f>2*$B$32</f>
         <v>8</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="I121">
+      <c r="F122" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I122">
         <f>2*$B$32+2*$B$31+4</f>
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="285" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row r="123" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+      <c r="A123">
         <v>22</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D122">
-        <f>5*8*$B$41*$B$32</f>
+      <c r="C123" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D123">
+        <f>5*8*$B$42*$B$32</f>
         <v>960</v>
       </c>
-      <c r="E122">
-        <f>2*$B$41*$B$32</f>
+      <c r="E123">
+        <f>2*$B$42*$B$32</f>
         <v>48</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="I122">
+      <c r="F123" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I123">
         <f>2*$B$29+2</f>
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="330" x14ac:dyDescent="0.25">
-      <c r="A123">
+    <row r="124" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>23</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="D123">
-        <f>5*8*$B$41*$B$32</f>
+      <c r="C124" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D124">
+        <f>5*8*$B$42*$B$32</f>
         <v>960</v>
       </c>
-      <c r="E123">
-        <f>2*$B$41*$B$32</f>
+      <c r="E124">
+        <f>2*$B$42*$B$32</f>
         <v>48</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I123">
+      <c r="F124" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I124">
         <f>2*$B$27+2</f>
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A124">
+    <row r="125" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>24</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="D124">
-        <f>5*8*$B$41*$B$32</f>
+      <c r="C125" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D125">
+        <f>5*8*$B$42*$B$32</f>
         <v>960</v>
       </c>
-      <c r="E124">
-        <f>2*$B$41*$B$32</f>
+      <c r="E125">
+        <f>2*$B$42*$B$32</f>
         <v>48</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C125" s="5" t="s">
+      <c r="F125" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C126" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D125">
-        <f>SUM(D115:D124)</f>
+      <c r="D126">
+        <f>SUM(D116:D125)</f>
         <v>6120</v>
       </c>
-      <c r="E125">
-        <f>SUM(E115:E124)</f>
+      <c r="E126">
+        <f>SUM(E116:E125)</f>
         <v>312</v>
       </c>
-      <c r="I125">
-        <f>SUM(I115:I124)</f>
+      <c r="I126">
+        <f>SUM(I116:I125)</f>
         <v>112</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>329</v>
+        <v>513</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D133" s="1" t="s">
+    <row r="134" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F134" t="s">
         <v>92</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G134" t="s">
         <v>93</v>
       </c>
-      <c r="H133" s="1" t="s">
+      <c r="H134" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I133" s="1" t="s">
+      <c r="I134" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B134" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C134" s="15"/>
-    </row>
-    <row r="135" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A135">
+    <row r="135" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B135" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C135" s="15"/>
+    </row>
+    <row r="136" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A136">
         <v>25</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="D135">
+      <c r="C136" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D136">
         <f>5*8*$B$32</f>
         <v>160</v>
       </c>
-      <c r="E135">
+      <c r="E136">
         <f>2*$B$32</f>
         <v>8</v>
       </c>
-      <c r="F135" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="I135">
+      <c r="F136" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I136">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A136">
+    <row r="137" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A137">
         <v>26</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D136">
-        <f>2*5*8*$B$32</f>
-        <v>320</v>
-      </c>
-      <c r="E136">
-        <f>2*2*$B$32</f>
-        <v>16</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="I136">
-        <f>$B$29+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>27</v>
-      </c>
       <c r="C137" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D137">
         <f>2*5*8*$B$32</f>
@@ -11650,164 +11639,163 @@
         <v>16</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I137">
+        <f>$B$29+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>27</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D138">
+        <f>2*5*8*$B$32</f>
+        <v>320</v>
+      </c>
+      <c r="E138">
+        <f>2*2*$B$32</f>
+        <v>16</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I138">
         <f>$B$32+$B$27</f>
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138">
+    <row r="139" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139">
         <v>28</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D138">
+      <c r="C139" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D139">
         <v>1</v>
       </c>
-      <c r="E138">
+      <c r="E139">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C139" s="5" t="s">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C140" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D139">
-        <f>SUM(D135:D138)</f>
+      <c r="D140">
+        <f>SUM(D136:D139)</f>
         <v>801</v>
       </c>
-      <c r="E139">
-        <f>SUM(E135:E138)</f>
+      <c r="E140">
+        <f>SUM(E136:E139)</f>
         <v>41</v>
       </c>
-      <c r="I139">
-        <f>SUM(I135:I138)</f>
+      <c r="I140">
+        <f>SUM(I136:I139)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>329</v>
+        <v>517</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D147" s="1" t="s">
+    <row r="148" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E148" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F148" t="s">
         <v>92</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G148" t="s">
         <v>93</v>
       </c>
-      <c r="H147" s="1" t="s">
+      <c r="H148" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I147" s="1" t="s">
+      <c r="I148" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148">
+    <row r="149" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149">
         <v>29</v>
       </c>
-      <c r="B148" s="23" t="s">
-        <v>520</v>
-      </c>
-      <c r="C148" s="23"/>
-      <c r="D148">
+      <c r="B149" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="C149" s="28"/>
+      <c r="D149">
         <f>8*$B$33</f>
         <v>112</v>
       </c>
-      <c r="E148">
+      <c r="E149">
         <v>2</v>
       </c>
-      <c r="F148" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="I148">
+      <c r="F149" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I149">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149">
+    <row r="150" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150">
         <v>30</v>
       </c>
-      <c r="B149" s="23" t="s">
-        <v>521</v>
-      </c>
-      <c r="C149" s="23"/>
-      <c r="D149">
-        <f>5*8*$B$33</f>
-        <v>560</v>
-      </c>
-      <c r="E149">
-        <f>2*$B$33</f>
-        <v>28</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="I149">
-        <f>$B$29</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>31</v>
-      </c>
-      <c r="B150" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="C150" s="23"/>
+      <c r="B150" s="28" t="s">
+        <v>519</v>
+      </c>
+      <c r="C150" s="28"/>
       <c r="D150">
         <f>5*8*$B$33</f>
         <v>560</v>
@@ -11817,407 +11805,420 @@
         <v>28</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I150">
+        <f>$B$29</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>31</v>
+      </c>
+      <c r="B151" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="C151" s="28"/>
+      <c r="D151">
+        <f>5*8*$B$33</f>
+        <v>560</v>
+      </c>
+      <c r="E151">
+        <f>2*$B$33</f>
+        <v>28</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="I151">
         <f>$B$27</f>
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B151" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C151" s="1"/>
-      <c r="F151" s="1"/>
-    </row>
-    <row r="152" spans="1:9" ht="240" x14ac:dyDescent="0.25">
-      <c r="A152">
+    <row r="152" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C152" s="1"/>
+      <c r="F152" s="1"/>
+    </row>
+    <row r="153" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="A153">
         <v>32</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C153" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G153" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="I152">
+      <c r="H153" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="I153">
         <f>(3*3+3)*2</f>
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B153" s="1" t="s">
+    <row r="154" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B154" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>33</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C153" s="1"/>
-    </row>
-    <row r="154" spans="1:9" ht="240" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>33</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D154">
+      <c r="D155">
         <v>0</v>
       </c>
-      <c r="E154">
+      <c r="E155">
         <v>0</v>
       </c>
-      <c r="F154" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="I154">
+      <c r="F155" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="I155">
         <f>(3*3+3)*2</f>
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B155" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C155" s="1"/>
-    </row>
-    <row r="156" spans="1:9" ht="300" x14ac:dyDescent="0.25">
-      <c r="A156">
+    <row r="156" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B156" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C156" s="1"/>
+    </row>
+    <row r="157" spans="1:9" ht="300" x14ac:dyDescent="0.25">
+      <c r="A157">
         <v>34</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D156">
+      <c r="C157" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D157">
         <v>0</v>
       </c>
-      <c r="E156">
+      <c r="E157">
         <v>0</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="I156">
+      <c r="F157" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="I157">
         <f>(3*3+3)*2</f>
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C157" s="5" t="s">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C158" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D157">
-        <f>SUM(D148:D156)</f>
+      <c r="D158">
+        <f>SUM(D149:D157)</f>
         <v>1232</v>
       </c>
-      <c r="E157">
-        <f>SUM(E148:E156)</f>
+      <c r="E158">
+        <f>SUM(E149:E157)</f>
         <v>58</v>
       </c>
-      <c r="I157">
-        <f>SUM(I148:I156)</f>
+      <c r="I158">
+        <f>SUM(I149:I157)</f>
         <v>79</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>329</v>
+        <v>521</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>25</v>
-      </c>
-      <c r="B165" t="s">
-        <v>27</v>
-      </c>
-      <c r="C165" t="s">
-        <v>28</v>
-      </c>
-      <c r="D165" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>25</v>
+      </c>
+      <c r="B166" t="s">
+        <v>27</v>
+      </c>
+      <c r="C166" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>39</v>
       </c>
-      <c r="B166">
+      <c r="B167">
         <f>(150*4+50*11+200*7)*30*$B$29*$B$31</f>
         <v>918000</v>
       </c>
-      <c r="C166" s="7">
-        <f>B166/3600</f>
+      <c r="C167" s="7">
+        <f>B167/3600</f>
         <v>255</v>
       </c>
-      <c r="D166">
-        <f>ROUNDUP(2*C166/24,0)/2</f>
+      <c r="D167">
+        <f>ROUNDUP(2*C167/24,0)/2</f>
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>40</v>
       </c>
-      <c r="B167">
+      <c r="B168">
         <f>(150*4+50*11+200*7)*20*$B$29*$B$31*$B$27</f>
         <v>2448000</v>
       </c>
-      <c r="C167" s="7">
-        <f>B167/3600</f>
+      <c r="C168" s="7">
+        <f>B168/3600</f>
         <v>680</v>
       </c>
-      <c r="D167">
-        <f t="shared" ref="D167:D170" si="0">ROUNDUP(2*C167/24,0)/2</f>
+      <c r="D168">
+        <f t="shared" ref="D168:D171" si="0">ROUNDUP(2*C168/24,0)/2</f>
         <v>28.5</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B168">
-        <f>((150+50)/2)*$B$55*0.6</f>
-        <v>14515200.000000004</v>
-      </c>
-      <c r="C168" s="7">
-        <f t="shared" ref="C168:C170" si="1">B168/3600</f>
-        <v>4032.0000000000009</v>
-      </c>
-      <c r="D168">
-        <f t="shared" si="0"/>
-        <v>168</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="B169">
-        <f>((150+50)/2)*$B$56*2.5</f>
+        <f>((150+50)/2)*$B$56*0.6</f>
+        <v>72576000.000000015</v>
+      </c>
+      <c r="C169" s="7">
+        <f t="shared" ref="C169:C171" si="1">B169/3600</f>
+        <v>20160.000000000004</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B170">
+        <f>((150+50)/2)*$B$57*2.5</f>
         <v>288000</v>
       </c>
-      <c r="C169" s="7">
+      <c r="C170" s="7">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="D169">
+      <c r="D170">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B170">
-        <f>((150+50)/2)*$B$57*0.6</f>
+    <row r="171" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B171">
+        <f>((150+50)/2)*$B$58*0.6</f>
         <v>11520</v>
       </c>
-      <c r="C170" s="7">
+      <c r="C171" s="7">
         <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
-      <c r="D170">
+      <c r="D171">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B171">
-        <f>((150+50)/2)*$B$58*0.6</f>
-        <v>1451520</v>
-      </c>
-      <c r="C171" s="7">
-        <f t="shared" ref="C171:C173" si="2">B171/3600</f>
-        <v>403.2</v>
-      </c>
-      <c r="D171">
-        <f t="shared" ref="D171:D173" si="3">ROUNDUP(2*C171/24,0)/2</f>
-        <v>17</v>
-      </c>
-    </row>
     <row r="172" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B172">
         <f>((150+50)/2)*$B$59*0.6</f>
+        <v>1451520</v>
+      </c>
+      <c r="C172" s="7">
+        <f t="shared" ref="C172:C174" si="2">B172/3600</f>
+        <v>403.2</v>
+      </c>
+      <c r="D172">
+        <f t="shared" ref="D172:D174" si="3">ROUNDUP(2*C172/24,0)/2</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B173">
+        <f>((150+50)/2)*$B$60*0.6</f>
         <v>23040</v>
       </c>
-      <c r="C172" s="7">
+      <c r="C173" s="7">
         <f t="shared" si="2"/>
         <v>6.4</v>
-      </c>
-      <c r="D172">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B173">
-        <f>((150+50)/2)*$B$60*0.6</f>
-        <v>40320</v>
-      </c>
-      <c r="C173" s="7">
-        <f t="shared" si="2"/>
-        <v>11.2</v>
       </c>
       <c r="D173">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B175">
-        <f>5*$B$55*0.1</f>
-        <v>120960.00000000003</v>
-      </c>
-      <c r="C175" s="7">
-        <f>B175/3600</f>
-        <v>33.600000000000009</v>
-      </c>
-      <c r="D175">
-        <f>ROUNDUP(2*C175/24,0)/2</f>
-        <v>1.5</v>
+    <row r="174" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B174">
+        <f>((150+50)/2)*$B$61*0.6</f>
+        <v>40320</v>
+      </c>
+      <c r="C174" s="7">
+        <f t="shared" si="2"/>
+        <v>11.2</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B176">
         <f>5*$B$56*0.1</f>
-        <v>576</v>
+        <v>604800.00000000012</v>
       </c>
       <c r="C176" s="7">
-        <f t="shared" ref="C176:C181" si="4">B176/3600</f>
-        <v>0.16</v>
+        <f>B176/3600</f>
+        <v>168.00000000000003</v>
       </c>
       <c r="D176">
         <f>ROUNDUP(2*C176/24,0)/2</f>
-        <v>0.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B177">
-        <f>4*$B$57*0.1</f>
+        <f>5*$B$57*0.1</f>
+        <v>576</v>
+      </c>
+      <c r="C177" s="7">
+        <f t="shared" ref="C177:C182" si="4">B177/3600</f>
+        <v>0.16</v>
+      </c>
+      <c r="D177">
+        <f>ROUNDUP(2*C177/24,0)/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B178">
+        <f>4*$B$58*0.1</f>
         <v>76.800000000000011</v>
       </c>
-      <c r="C177" s="7">
+      <c r="C178" s="7">
         <f t="shared" si="4"/>
         <v>2.1333333333333336E-2</v>
       </c>
-      <c r="D177">
-        <f t="shared" ref="D177:D192" si="5">ROUNDUP(4*C177/24,0)/4</f>
+      <c r="D178">
+        <f t="shared" ref="D178:D193" si="5">ROUNDUP(4*C178/24,0)/4</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B178">
-        <f>10*$B$58*0.1</f>
+    <row r="179" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B179">
+        <f>10*$B$59*0.1</f>
         <v>24192</v>
       </c>
-      <c r="C178" s="7">
-        <f t="shared" ref="C178:C180" si="6">B178/3600</f>
+      <c r="C179" s="7">
+        <f t="shared" ref="C179:C181" si="6">B179/3600</f>
         <v>6.72</v>
       </c>
-      <c r="D178">
+      <c r="D179">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B179">
-        <f>4*$B$59*0.1</f>
+    <row r="180" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B180">
+        <f>4*$B$60*0.1</f>
         <v>153.60000000000002</v>
       </c>
-      <c r="C179" s="7">
+      <c r="C180" s="7">
         <f t="shared" si="6"/>
         <v>4.2666666666666672E-2</v>
-      </c>
-      <c r="D179">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B180">
-        <f>6*$B$60*0.1</f>
-        <v>403.20000000000005</v>
-      </c>
-      <c r="C180" s="7">
-        <f t="shared" si="6"/>
-        <v>0.11200000000000002</v>
       </c>
       <c r="D180">
         <f t="shared" si="5"/>
@@ -12226,49 +12227,49 @@
     </row>
     <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B181">
-        <f>$D$77*0.2</f>
+        <f>6*$B$61*0.1</f>
+        <v>403.20000000000005</v>
+      </c>
+      <c r="C181" s="7">
+        <f t="shared" si="6"/>
+        <v>0.11200000000000002</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B182">
+        <f>$D$78*0.2</f>
         <v>0</v>
       </c>
-      <c r="C181" s="7">
+      <c r="C182" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D181">
+      <c r="D182">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B182">
-        <f>$D$93*0.2</f>
-        <v>608.20000000000005</v>
-      </c>
-      <c r="C182" s="7">
-        <f>B182/3600</f>
-        <v>0.16894444444444445</v>
-      </c>
-      <c r="D182">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-    </row>
     <row r="183" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B183">
-        <f>$D$105*0.2</f>
-        <v>608</v>
+        <f>$D$94*0.2</f>
+        <v>608.20000000000005</v>
       </c>
       <c r="C183" s="7">
         <f>B183/3600</f>
-        <v>0.16888888888888889</v>
+        <v>0.16894444444444445</v>
       </c>
       <c r="D183">
         <f t="shared" si="5"/>
@@ -12277,15 +12278,15 @@
     </row>
     <row r="184" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B184">
-        <f>$D$125*0.2</f>
-        <v>1224</v>
+        <f>$D$106*0.2</f>
+        <v>608</v>
       </c>
       <c r="C184" s="7">
-        <f t="shared" ref="C184:C186" si="7">B184/3600</f>
-        <v>0.34</v>
+        <f>B184/3600</f>
+        <v>0.16888888888888889</v>
       </c>
       <c r="D184">
         <f t="shared" si="5"/>
@@ -12294,15 +12295,15 @@
     </row>
     <row r="185" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B185">
-        <f>$D$139*0.2</f>
-        <v>160.20000000000002</v>
+        <f>$D$126*0.2</f>
+        <v>1224</v>
       </c>
       <c r="C185" s="7">
-        <f t="shared" si="7"/>
-        <v>4.4500000000000005E-2</v>
+        <f t="shared" ref="C185:C187" si="7">B185/3600</f>
+        <v>0.34</v>
       </c>
       <c r="D185">
         <f t="shared" si="5"/>
@@ -12311,15 +12312,15 @@
     </row>
     <row r="186" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B186">
-        <f>$D$157*0.2</f>
-        <v>246.4</v>
+        <f>$D$140*0.2</f>
+        <v>160.20000000000002</v>
       </c>
       <c r="C186" s="7">
         <f t="shared" si="7"/>
-        <v>6.8444444444444447E-2</v>
+        <v>4.4500000000000005E-2</v>
       </c>
       <c r="D186">
         <f t="shared" si="5"/>
@@ -12328,49 +12329,49 @@
     </row>
     <row r="187" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B187">
-        <f>$E$77*12</f>
-        <v>0</v>
+        <f>$D$158*0.2</f>
+        <v>246.4</v>
       </c>
       <c r="C187" s="7">
-        <f>B187/3600</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>6.8444444444444447E-2</v>
       </c>
       <c r="D187">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B188">
-        <f>$E$93*12</f>
-        <v>1836</v>
+        <f>$E$78*12</f>
+        <v>0</v>
       </c>
       <c r="C188" s="7">
         <f>B188/3600</f>
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="D188">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B189">
-        <f>$E$105*12</f>
-        <v>1824</v>
+        <f>$E$94*12</f>
+        <v>1836</v>
       </c>
       <c r="C189" s="7">
         <f>B189/3600</f>
-        <v>0.50666666666666671</v>
+        <v>0.51</v>
       </c>
       <c r="D189">
         <f t="shared" si="5"/>
@@ -12379,15 +12380,15 @@
     </row>
     <row r="190" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B190">
-        <f>$E$125*12</f>
-        <v>3744</v>
+        <f>$E$106*12</f>
+        <v>1824</v>
       </c>
       <c r="C190" s="7">
-        <f t="shared" ref="C190:C192" si="8">B190/3600</f>
-        <v>1.04</v>
+        <f>B190/3600</f>
+        <v>0.50666666666666671</v>
       </c>
       <c r="D190">
         <f t="shared" si="5"/>
@@ -12396,15 +12397,15 @@
     </row>
     <row r="191" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B191">
-        <f>$E$139*12</f>
-        <v>492</v>
+        <f>$E$126*12</f>
+        <v>3744</v>
       </c>
       <c r="C191" s="7">
-        <f t="shared" si="8"/>
-        <v>0.13666666666666666</v>
+        <f t="shared" ref="C191:C193" si="8">B191/3600</f>
+        <v>1.04</v>
       </c>
       <c r="D191">
         <f t="shared" si="5"/>
@@ -12413,250 +12414,267 @@
     </row>
     <row r="192" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B192">
-        <f>$E$157*12</f>
-        <v>696</v>
+        <f>$E$140*12</f>
+        <v>492</v>
       </c>
       <c r="C192" s="7">
         <f t="shared" si="8"/>
-        <v>0.19333333333333333</v>
+        <v>0.13666666666666666</v>
       </c>
       <c r="D192">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
+    <row r="193" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B193">
+        <f>$E$158*12</f>
+        <v>696</v>
+      </c>
+      <c r="C193" s="7">
+        <f t="shared" si="8"/>
+        <v>0.19333333333333333</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D194">
-        <f>SUM(D166:D192)</f>
-        <v>235.25</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
+      <c r="D195">
+        <f>SUM(D167:D193)</f>
+        <v>912.75</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D195">
-        <f>ROUNDUP(4*D194/'USAC-testing'!$B$141,0)/4</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
+      <c r="D196">
+        <f>ROUNDUP(4*D195/'USAC-testing'!$B$141,0)/4</f>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B197">
+      <c r="B198">
         <v>1.5</v>
       </c>
-      <c r="D197" s="3"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
       <c r="D198" s="3"/>
     </row>
-    <row r="199" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+      <c r="D199" s="3"/>
+    </row>
+    <row r="200" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D199" s="6">
+      <c r="D200" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
-      <c r="D200" s="3"/>
-    </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="1"/>
+      <c r="D201" s="3"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D201" s="3">
-        <f>(D195+D199)*B197</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C203">
-        <v>4</v>
-      </c>
-      <c r="D203">
-        <f>ROUNDUP(4*C203/8,0)/4</f>
-        <v>0.5</v>
+      <c r="D202" s="3">
+        <f>(D196+D200)*B198</f>
+        <v>19.875</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B204">
-        <f>($I$77+$I$93+$I$105+$I$125+$I$139+$I$157)*60*3</f>
-        <v>53460</v>
-      </c>
-      <c r="C204" s="7">
-        <f>B204/3600</f>
-        <v>14.85</v>
+        <v>181</v>
+      </c>
+      <c r="C204">
+        <v>4</v>
       </c>
       <c r="D204">
         <f>ROUNDUP(4*C204/8,0)/4</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B205">
+        <f>($I$78+$I$94+$I$106+$I$126+$I$140+$I$158)*60*3</f>
+        <v>53460</v>
+      </c>
+      <c r="C205" s="7">
+        <f>B205/3600</f>
+        <v>14.85</v>
+      </c>
+      <c r="D205">
+        <f>ROUNDUP(4*C205/8,0)/4</f>
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C205" s="11" t="s">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C206" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D205" s="3">
-        <f>SUM(D203:D204)</f>
+      <c r="D206" s="3">
+        <f>SUM(D204:D205)</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C206" s="11"/>
-      <c r="D206" s="3"/>
-    </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
+      <c r="C207" s="11"/>
+      <c r="D207" s="3"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C207">
-        <f>MIN((B197+1),ROUNDDOWN($D$195,0))*15</f>
+      <c r="C208">
+        <f>MIN((B198+1),ROUNDDOWN($D$196,0))*15</f>
         <v>37.5</v>
       </c>
-      <c r="D207">
-        <f>ROUNDUP(4*C207/24,0)/4</f>
+      <c r="D208">
+        <f>ROUNDUP(4*C208/24,0)/4</f>
         <v>1.75</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
-    </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="A209" s="1"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>126</v>
       </c>
-      <c r="D209">
-        <f>D201+D205+D207</f>
-        <v>10.25</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="10" t="s">
+      <c r="D210">
+        <f>D202+D206+D208</f>
+        <v>24.125</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A211" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D210" s="9">
-        <f>ROUNDDOWN(D209/5,0)*7+(D209-ROUNDDOWN(D209/5,0)*5)</f>
-        <v>14.25</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B212">
+      <c r="D211" s="9">
+        <f>ROUNDDOWN(D210/5,0)*7+(D210-ROUNDDOWN(D210/5,0)*5)</f>
+        <v>32.125</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B213">
         <f>(((150*4+50*11+200*7)*$B$28*$B$29*$B$31)*(3380+130*0.5*500+22*0.5*500))/(10^9)+((150*4+50*11+200*7)*$B$28*$B$29*$B$31)*5/(10^6)</f>
         <v>1.4192279999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B213">
+    <row r="214" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B214">
         <f>(((150*4+50*11+200*7)*$B$28*$B$29*$B$31)*(120+45*0.5*500))/(10^9)</f>
         <v>0.34792200000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B214">
+    <row r="215" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B215">
         <f>2*(150*4+50*11+200*7)*$B$28*$B$29*$B$31*(120+45*0.2*500)/(10^9)</f>
         <v>0.282744</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B215">
+    <row r="216" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B216">
         <f>((150*4+50*11+200*7)*$B$28*$B$29*$B$31*$B$27)*(1180+554*500)/(10^9)+((150*4+50*11+200*7)*$B$28*$B$29*$B$31*$B$27)*5/(10^6)</f>
         <v>34.661232000000005</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>261</v>
-      </c>
-      <c r="B216">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>260</v>
+      </c>
+      <c r="B217">
         <f>((150*4+50*11+200*7)*$B$28*$B$29*$B$31*$B$27)*(115+500*(6+(2*5+10)+2*(2*8+12+8+5+3+4)))/(10^9)</f>
         <v>7.4804760000000003</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>256</v>
-      </c>
-      <c r="B217">
-        <f>(((150+50)/2)*($B$55+$B$56+$B$57+$B$58+$B$59)+((7*200+7*50)/14)*$B$60)*(5*8*20+3*20+2*20+2*20+200)/(10^9)</f>
-        <v>30.629520000000007</v>
-      </c>
-    </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>262</v>
+      <c r="A218" t="s">
+        <v>255</v>
       </c>
       <c r="B218">
-        <f>(5*$B$55+5*$B$56+4*$B$57+10*$B$58+4*$B$59+6*$B$60)*(5*8*20+10*20+200)/(10^9)</f>
-        <v>1.7563392000000002</v>
+        <f>(((150+50)/2)*($B$56+$B$57+$B$58+$B$59+$B$60)+((7*200+7*50)/14)*$B$61)*(5*8*20+3*20+2*20+2*20+200)/(10^9)</f>
+        <v>140.94504000000003</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>257</v>
+      <c r="A219" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="B219">
-        <f>($D$77+$D$93+$D$105+$D$125+$D$139+$D$157)*250/(10^6)</f>
-        <v>3.5585</v>
+        <f>(5*$B$56+5*$B$57+4*$B$58+10*$B$59+4*$B$60+6*$B$61)*(5*8*20+10*20+200)/(10^9)</f>
+        <v>7.5624192000000008</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B220">
-        <f>($E$77+$E$93+$E$105+$E$125+$E$139+$E$157)/1000</f>
+        <f>($D$78+$D$94+$D$106+$D$126+$D$140+$D$158)*250/(10^6)</f>
+        <v>3.5585</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>257</v>
+      </c>
+      <c r="B221">
+        <f>($E$78+$E$94+$E$106+$E$126+$E$140+$E$158)/1000</f>
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="8" t="s">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B221" s="8">
-        <f>ROUNDUP(SUM(B212:B220)/5,0)*5</f>
-        <v>85</v>
+      <c r="B222" s="8">
+        <f>ROUNDUP(SUM(B213:B221)/5,0)*5</f>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B105:C105"/>
     <mergeCell ref="B149:C149"/>
     <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B101:C101"/>
     <mergeCell ref="B102:C102"/>
     <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12668,7 +12686,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12678,12 +12696,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B3" s="8">
         <f>'USAC-testing'!B141</f>
@@ -12701,11 +12719,11 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B5" s="8">
-        <f>'USAC-testing'!B170+USAC_vs_RANSAC!B76+Refinement_BA!B74+VFC_GMS_SOF!B75+Refinement_BA_stereo!B81+Correspondence_Pool!B133+Robustness!B221</f>
-        <v>195</v>
+        <f>'USAC-testing'!B170+USAC_vs_RANSAC!B76+Refinement_BA!B74+VFC_GMS_SOF!B75+Refinement_BA_stereo!B81+Correspondence_Pool!B133+Robustness!B222</f>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12716,31 +12734,31 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B8">
-        <f>'USAC-testing'!D207+USAC_vs_RANSAC!D69+Refinement_BA!D67+VFC_GMS_SOF!D68+Refinement_BA_stereo!D74+Correspondence_Pool!D121+Robustness!D209</f>
-        <v>37.625</v>
+        <f>'USAC-testing'!D207+USAC_vs_RANSAC!D69+Refinement_BA!D67+VFC_GMS_SOF!D68+Refinement_BA_stereo!D74+Correspondence_Pool!D121+Robustness!D210</f>
+        <v>51.5</v>
       </c>
       <c r="C8">
         <f>B8*24</f>
-        <v>903</v>
+        <v>1236</v>
       </c>
       <c r="D8">
         <f>B8/7</f>
-        <v>5.375</v>
+        <v>7.3571428571428568</v>
       </c>
       <c r="E8">
         <f>D8/4.33</f>
-        <v>1.241339491916859</v>
+        <v>1.6991092048828769</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12749,76 +12767,76 @@
       </c>
       <c r="B9">
         <f>ROUNDDOWN(B8/5,0)*7+(B8-ROUNDDOWN(B8/5,0)*5)</f>
-        <v>51.625</v>
+        <v>71.5</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:C10" si="0">B9*24</f>
-        <v>1239</v>
+        <v>1716</v>
       </c>
       <c r="D9">
         <f t="shared" ref="D9:D10" si="1">B9/7</f>
-        <v>7.375</v>
+        <v>10.214285714285714</v>
       </c>
       <c r="E9">
         <f t="shared" ref="E9:E10" si="2">D9/4.33</f>
-        <v>1.7032332563510393</v>
+        <v>2.3589574397888482</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>392</v>
+      <c r="A10" s="23" t="s">
+        <v>390</v>
       </c>
       <c r="B10" s="8">
         <f>ROUNDUP(B8+(B9-B8)/2,0)</f>
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C10" s="8">
         <f t="shared" si="0"/>
-        <v>1080</v>
+        <v>1488</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>6.4285714285714288</v>
+        <v>8.8571428571428577</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>1.4846585285384362</v>
+        <v>2.0455295282085122</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B13">
-        <f>'USAC-testing'!B33+'USAC-testing'!B37+USAC_vs_RANSAC!B24+Refinement_BA!B26+VFC_GMS_SOF!B27+Refinement_BA_stereo!B33+Correspondence_Pool!B41+Correspondence_Pool!B42+Correspondence_Pool!B43+Robustness!B55+Robustness!B56+Robustness!B57+Robustness!B58+Robustness!B59+Robustness!B60</f>
-        <v>425064.00000000006</v>
+        <f>'USAC-testing'!B33+'USAC-testing'!B37+USAC_vs_RANSAC!B24+Refinement_BA!B26+VFC_GMS_SOF!B27+Refinement_BA_stereo!B33+Correspondence_Pool!B41+Correspondence_Pool!B42+Correspondence_Pool!B43+Robustness!B56+Robustness!B57+Robustness!B58+Robustness!B59+Robustness!B60+Robustness!B61</f>
+        <v>1392744.0000000002</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B15">
         <f>C10*3.492*0.89</f>
-        <v>3356.5104000000001</v>
+        <v>4624.5254399999994</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B16">
         <f>B5*0.119*0.89*ROUNDUP(E10,0)</f>
-        <v>41.304899999999996</v>
+        <v>98.496300000000019</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B17">
         <f>SUM(B15:B16)</f>
-        <v>3397.8153000000002</v>
+        <v>4723.0217399999992</v>
       </c>
     </row>
   </sheetData>
@@ -12830,8 +12848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12841,7 +12859,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -12852,15 +12870,15 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B4">
         <f>5*9</f>
@@ -12881,7 +12899,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B5">
         <f>5*8</f>
@@ -12902,7 +12920,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B6">
         <f>2*8</f>
@@ -12923,7 +12941,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B7">
         <f>2*9</f>
@@ -12944,7 +12962,7 @@
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B8">
         <v>16</v>
@@ -12964,7 +12982,7 @@
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -12984,7 +13002,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -13004,7 +13022,7 @@
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B11">
         <v>16</v>
@@ -13024,7 +13042,7 @@
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -13044,7 +13062,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -13064,7 +13082,7 @@
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B14">
         <f>2.5*8</f>
@@ -13085,7 +13103,7 @@
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B15">
         <f>4*8</f>
@@ -13106,7 +13124,7 @@
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B16">
         <f>2.5*8</f>
@@ -13127,7 +13145,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -13147,7 +13165,7 @@
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B18">
         <v>24</v>
@@ -13167,7 +13185,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -13187,7 +13205,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B20">
         <f>5*0.5</f>
@@ -13208,7 +13226,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B21">
         <f>5*0.5</f>
@@ -13229,7 +13247,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B22">
         <f>15*0.5</f>
@@ -13250,7 +13268,7 @@
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -13270,7 +13288,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B24">
         <f>14</f>
@@ -13291,7 +13309,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B25">
         <f>6</f>
@@ -13312,7 +13330,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B26">
         <f>3</f>
@@ -13333,7 +13351,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B27">
         <f>4</f>
@@ -13354,7 +13372,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B28">
         <f>3</f>
@@ -13375,7 +13393,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B29">
         <f>15*0.5</f>
@@ -13396,7 +13414,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B30">
         <f>34*0.5</f>
@@ -13417,7 +13435,7 @@
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B31">
         <v>40</v>
@@ -13437,7 +13455,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B32">
         <v>16</v>
@@ -13457,7 +13475,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -13477,7 +13495,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B34">
         <f>14*1.5</f>
@@ -13498,7 +13516,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B35">
         <f>6*1.5</f>
@@ -13519,7 +13537,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B36">
         <f>3*1.5</f>
@@ -13540,7 +13558,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B37">
         <f>4*1.5</f>
@@ -13561,7 +13579,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B38">
         <f>3*1.5</f>
@@ -13582,7 +13600,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B39">
         <f>15*1</f>
@@ -13603,7 +13621,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B40">
         <f>26*1</f>
@@ -13624,7 +13642,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B41">
         <f>14*2</f>
@@ -13645,7 +13663,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B42">
         <f>6*2</f>
@@ -13666,7 +13684,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B43">
         <f>3*2</f>
@@ -13687,7 +13705,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B44">
         <f>4*2</f>
@@ -13708,7 +13726,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B45">
         <f>3*2</f>
@@ -13729,7 +13747,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B46">
         <f>15*2</f>
@@ -13750,7 +13768,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B47">
         <f>34*2</f>
@@ -13771,7 +13789,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B49">
         <f>SUM(B4:B47)</f>
@@ -13792,44 +13810,44 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>447</v>
-      </c>
-      <c r="B51" s="32">
+        <v>445</v>
+      </c>
+      <c r="B51" s="24">
         <v>43558</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>459</v>
-      </c>
-      <c r="B52" s="32">
+        <v>457</v>
+      </c>
+      <c r="B52" s="24">
         <f>B51+ROUNDUP(E49*4.33*7,0)</f>
         <v>43676</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>460</v>
-      </c>
-      <c r="B53" s="33">
+        <v>458</v>
+      </c>
+      <c r="B53" s="25">
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>461</v>
-      </c>
-      <c r="B54" s="32">
+        <v>459</v>
+      </c>
+      <c r="B54" s="24">
         <f>B52+B53+8</f>
         <v>43696</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B56">
-        <f>'USAC-testing'!$D$203*8+USAC_vs_RANSAC!$D$65*8+Refinement_BA!$D$63*8+VFC_GMS_SOF!$D$64*8+Refinement_BA_stereo!$D$70*8+Correspondence_Pool!$D$117*8+Robustness!$D$205*8</f>
+        <f>'USAC-testing'!$D$203*8+USAC_vs_RANSAC!$D$65*8+Refinement_BA!$D$63*8+VFC_GMS_SOF!$D$64*8+Refinement_BA_stereo!$D$70*8+Correspondence_Pool!$D$117*8+Robustness!$D$206*8</f>
         <v>58</v>
       </c>
       <c r="C56">
@@ -13847,10 +13865,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B57">
-        <f>'USAC-testing'!$B$190*'USAC-testing'!$D$192*8+USAC_vs_RANSAC!$B$57*USAC_vs_RANSAC!$D$59*8+Refinement_BA!$B$55*Refinement_BA!$D$57*8+VFC_GMS_SOF!$B$56*VFC_GMS_SOF!$D$58*8+Refinement_BA_stereo!$B$62*Refinement_BA_stereo!$D$64*8+Correspondence_Pool!$B$109*Correspondence_Pool!$D$111*8+Robustness!$B$197*Robustness!$D$199*8</f>
+        <f>'USAC-testing'!$B$190*'USAC-testing'!$D$192*8+USAC_vs_RANSAC!$B$57*USAC_vs_RANSAC!$D$59*8+Refinement_BA!$B$55*Refinement_BA!$D$57*8+VFC_GMS_SOF!$B$56*VFC_GMS_SOF!$D$58*8+Refinement_BA_stereo!$B$62*Refinement_BA_stereo!$D$64*8+Correspondence_Pool!$B$109*Correspondence_Pool!$D$111*8+Robustness!$B$198*Robustness!$D$200*8</f>
         <v>60</v>
       </c>
       <c r="C57">
@@ -13868,7 +13886,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B58">
         <f>7*2</f>
@@ -13889,7 +13907,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B60">
         <f>SUM(B56:B58)</f>
@@ -13910,28 +13928,28 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B62">
         <f>Overview!$C$10</f>
-        <v>1080</v>
+        <v>1488</v>
       </c>
       <c r="C62">
         <f>Overview!$B$10</f>
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D62">
         <f>C62/7</f>
-        <v>6.4285714285714288</v>
+        <v>8.8571428571428577</v>
       </c>
       <c r="E62">
         <f t="shared" si="9"/>
-        <v>1.4846585285384362</v>
+        <v>2.0455295282085122</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -13939,25 +13957,25 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E64">
         <f>E62-E60</f>
-        <v>0.72253381722203902</v>
+        <v>1.2834048168921151</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E65">
-        <f>E63-E64</f>
-        <v>0.27746618277796098</v>
+        <f>IF((E63-E64) &lt; 0.25,0.25,E63-E64)</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -13969,34 +13987,34 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>456</v>
-      </c>
-      <c r="B68" s="32">
+        <v>454</v>
+      </c>
+      <c r="B68" s="24">
         <f>B54+C62</f>
-        <v>43741</v>
+        <v>43758</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>457</v>
-      </c>
-      <c r="B69" s="32">
+        <v>455</v>
+      </c>
+      <c r="B69" s="24">
         <f>B68+ROUNDUP((E65+E66)*4.33*7,0)</f>
-        <v>43757</v>
+        <v>43773</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>458</v>
-      </c>
-      <c r="B70" s="32">
+        <v>456</v>
+      </c>
+      <c r="B70" s="24">
         <f>B69+ROUNDUP(3*4.33*7,0)+2+5+21+15</f>
-        <v>43891</v>
+        <v>43907</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -14004,11 +14022,11 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>463</v>
-      </c>
-      <c r="B72" s="32">
+        <v>461</v>
+      </c>
+      <c r="B72" s="24">
         <f>B70+ROUNDUP(E71*4.33*7,0)</f>
-        <v>43922</v>
+        <v>43938</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Overview/Autocalibration-Parametersweep-Testing.xlsx
+++ b/Test_Overview/Autocalibration-Parametersweep-Testing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="638" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="638" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="USAC-testing" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="Refinement_BA_stereo" sheetId="5" r:id="rId5"/>
     <sheet name="Correspondence_Pool" sheetId="6" r:id="rId6"/>
     <sheet name="Robustness" sheetId="7" r:id="rId7"/>
-    <sheet name="Overview" sheetId="8" r:id="rId8"/>
-    <sheet name="Zeitplan" sheetId="9" r:id="rId9"/>
+    <sheet name="USAC_vs_Autocalib" sheetId="10" r:id="rId8"/>
+    <sheet name="Overview" sheetId="8" r:id="rId9"/>
+    <sheet name="Zeitplan" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="633">
   <si>
     <t>Test USAC without correspondence aggregation and without refinement and BA</t>
   </si>
@@ -545,9 +546,6 @@
   </si>
   <si>
     <t>with and without distortion of the camera matrix (focal length and image center)  - test only on the best refineRT combination with/without BART combinations</t>
-  </si>
-  <si>
-    <t>enable/disable, 5 Möglichkeiten, 3 Weights (do not use refineRT &amp; BART disabled)</t>
   </si>
   <si>
     <t>For every scene (keypoint accuracy, depth distributions, 500 correspondences):</t>
@@ -3183,6 +3181,166 @@
   </si>
   <si>
     <t>0.4-0.8(0.1res)</t>
+  </si>
+  <si>
+    <t>enable/disable, 4 Möglichkeiten, 3 Weights (do not use refineRT &amp; BART disabled)</t>
+  </si>
+  <si>
+    <t>enable/disable, 4 Möglichkeiten, 3 Weights (do not use refineRT disabled)</t>
+  </si>
+  <si>
+    <t>Compare USAC with Autocalibration by providing aggregated keypoint data to USAC</t>
+  </si>
+  <si>
+    <t>Use best Robustness settings for the autocalibration</t>
+  </si>
+  <si>
+    <t>Stereo configurations</t>
+  </si>
+  <si>
+    <t>Different chunk sizes (# of frames) 
+for USAC</t>
+  </si>
+  <si>
+    <t>Possibilities for USAC</t>
+  </si>
+  <si>
+    <t>Possibilities for Autocalib</t>
+  </si>
+  <si>
+    <t>0.1-0.9(0.2res)</t>
+  </si>
+  <si>
+    <t>All scenes must be generated</t>
+  </si>
+  <si>
+    <t>100-500 TP correspondences;</t>
+  </si>
+  <si>
+    <t>1. Calc [Ra, ta]=mean+2*std for every comb. Angle and angle(t_diff)
+2. Calculate the range [rRa, rta] for [Ra, ta] over the whole data
+3. Combine [Ra, ta]: b = Ra/rRa + ta/rta
+4. Sum b over all inlier ratios for every combination</t>
+  </si>
+  <si>
+    <t>b vs inlier ratio 
+for every comb;
+bar chart for sum(b)</t>
+  </si>
+  <si>
+    <t>Statistic for R&amp;t difference (3 angles, 1 combined angle, x, y, z, norm(t_diff), angle(t_diff)) 
+over all scenes with fixed R &amp; t (accumulated) compared to the inlier ratios  (Combine all combinations in single plot).</t>
+  </si>
+  <si>
+    <t>For every algorithm (USAC, Autocalib)
+and chunk size:</t>
+  </si>
+  <si>
+    <t>1. Calc [Ra, ta]=mean+2*std for every comb. Angle and angle(t_diff)
+2. Calculate the range [rRa, rta] for [Ra, ta] over the whole data
+3. Combine [Ra, ta]: b = Ra/rRa + ta/rta
+4. Sum b over all inlier ratios for every combination &amp; keypoint acc</t>
+  </si>
+  <si>
+    <t>sum(b) vs keypoint acc 
+for every comb &amp;
+chunk size;</t>
+  </si>
+  <si>
+    <t>Statistic for R&amp;t difference (3 angles, 1 combined angle, x, y, z, norm(t_diff), angle(t_diff)) 
+over all scenes with fixed R &amp; t (accumulated) compared to depth distributions  (Combine all combinations in single plot).</t>
+  </si>
+  <si>
+    <t>1. Calc [Ra, ta]=mean+2*std for every comb. Angle and angle(t_diff)
+2. Calculate the range [rRa, rta] for [Ra, ta] over the whole data
+3. Combine [Ra, ta]: b = Ra/rRa + ta/rta</t>
+  </si>
+  <si>
+    <t>b vs depth distribution 
+for every comb;</t>
+  </si>
+  <si>
+    <t>Statistic for R&amp;t difference (3 angles, 1 combined angle, x, y, z, norm(t_diff), angle(t_diff)) 
+over all scenes with fixed R &amp; t (accumulated) compared to the inlier ratios &amp; keypoint accuracies</t>
+  </si>
+  <si>
+    <t>For  every stereo configuration with changing extrinsics:</t>
+  </si>
+  <si>
+    <t>1. Calc [Ra, ta]=mean+2*std for every comb. Angle and angle(t_diff)
+2. Calculate the range [rRa, rta] for [Ra, ta] over the whole data
+3. Combine [Ra, ta]: b = Ra/rRa + ta/rta
+4. Sum b over all inlier ratios for every combination &amp; frame number</t>
+  </si>
+  <si>
+    <t>b vs frame # 
+for every comb sep. for every inl rat;
+figure from 4</t>
+  </si>
+  <si>
+    <t>Statistic for R&amp;t difference (3 angles, 1 combined angle, x, y, z, norm(t_diff), angle(t_diff)) 
+over all scenes with fixed R &amp; t (accumulated) compared to frame number for every inlier ratio separately (Combine all combinations in single plot).</t>
+  </si>
+  <si>
+    <t>Fixed R &amp; t for 180 frames
+Combination of linear R &amp; t change (rotation about x, y, z =  0.05° per frame, translation of x, y, z = 0.0005 per frame), 180 frames 
+-&gt; same as for testing Robustness;
+Combination of abrupt R &amp; t change (rotation about x, y, z =  10° after 60 frames, translation of x, y, z = 0.1 after 60 frames), 120 frames 
+-&gt; same as for testing Robustness;</t>
+  </si>
+  <si>
+    <t>1-5 (res 1), 10-20 (res 5); Sliding aggregation window for frames (aggregate matches); at the end stop at a frame number 
+where it is guaranteed that the chunk size can be kept</t>
+  </si>
+  <si>
+    <t>Statistic for R&amp;t difference (3 angles, 1 combined angle, x, y, z, norm(t_diff), angle(t_diff)) 
+over all scenes with fixed R &amp; t (accumulated) compared to frame number for every inlier ratio separately 
+(Combine all combinations in single plot).</t>
+  </si>
+  <si>
+    <t>b vs frame # 
+for every comb &amp; stereo conf. sep. for every inl rat;
+figure from 4</t>
+  </si>
+  <si>
+    <t>1. Calc [Ra, ta]=mean+2*std for every comb. Angle and angle(t_diff)
+2. Calculate the range [rRa, rta] for [Ra, ta] over the whole data
+3. Combine [Ra, ta]: b = Ra/rRa + ta/rta
+4. Sum b over all inlier ratios for every combination, stereo configuration &amp; frame number</t>
+  </si>
+  <si>
+    <t>Statistic for execution time (fixed and linear time) -  only for fixed R &amp; t - compared to inlier ratios
+over all scenes (depth distr., keypoint accuracy)</t>
+  </si>
+  <si>
+    <t>1. Calculate the ta = overall execution time for 1000 keypoints from the mean values of fixed time budget and t/keypoint for every inlier ratio and combination
+2. Sum ta over inlier ratios
+3. Generate figures from steps 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>Statistic for execution time (fixed and linear time) -  only for fixed R &amp; t - compared to inlier ratios &amp; keypoint accs
+over all scenes (depth distr.)</t>
+  </si>
+  <si>
+    <t>Figures for all points</t>
+  </si>
+  <si>
+    <t>1. Calculate the ta = overall execution time for 1000 keypoints from the mean values of fixed time budget and t/keypoint for every inlier ratio, keypoint acc, and combination
+2. Sum ta over keypoint accs; chart sum(ta) vs inl rat
+3. Sum ta over inl rats; chart sum(ta) vs keypoint acc
+4. Sum ta over keypoint accs &amp; inl rats; bar chart</t>
+  </si>
+  <si>
+    <t>Possibilities for algorithms</t>
+  </si>
+  <si>
+    <t>c5.18xlarge</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/de/ec2/pricing/on-demand/</t>
+  </si>
+  <si>
+    <t>Datenübertragung</t>
   </si>
 </sst>
 </file>
@@ -3293,7 +3451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3344,10 +3502,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3361,6 +3516,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3685,8 +3846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:C46"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3727,7 +3888,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -3737,27 +3898,27 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3823,7 +3984,7 @@
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="29" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3834,7 +3995,7 @@
       <c r="B25">
         <v>8</v>
       </c>
-      <c r="C25" s="31"/>
+      <c r="C25" s="30"/>
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -3853,7 +4014,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3918,8 +4079,8 @@
         <v>21</v>
       </c>
       <c r="B37">
-        <f>(2+2*B18)*B22*B23*B19*B27*B31</f>
-        <v>13824</v>
+        <f>(2+2*B18)*B22*B23*B19*B27*B31*B28*B29*B30</f>
+        <v>165888</v>
       </c>
       <c r="C37" t="s">
         <v>33</v>
@@ -3943,7 +4104,7 @@
         <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -3981,10 +4142,10 @@
       <c r="A46">
         <v>1</v>
       </c>
-      <c r="B46" s="28" t="s">
-        <v>462</v>
-      </c>
-      <c r="C46" s="29"/>
+      <c r="B46" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="C46" s="28"/>
       <c r="D46">
         <f>8*5</f>
         <v>40</v>
@@ -3996,7 +4157,7 @@
         <v>74</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H46" t="s">
         <v>95</v>
@@ -4009,10 +4170,10 @@
       <c r="A47">
         <v>2</v>
       </c>
-      <c r="B47" s="28" t="s">
-        <v>463</v>
-      </c>
-      <c r="C47" s="29"/>
+      <c r="B47" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="C47" s="28"/>
       <c r="D47">
         <f>8*5</f>
         <v>40</v>
@@ -4024,7 +4185,7 @@
         <v>74</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>97</v>
@@ -4037,10 +4198,10 @@
       <c r="A48">
         <v>3</v>
       </c>
-      <c r="B48" s="28" t="s">
-        <v>464</v>
-      </c>
-      <c r="C48" s="29"/>
+      <c r="B48" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="C48" s="28"/>
       <c r="D48">
         <f>8*5*B24*B25</f>
         <v>960</v>
@@ -4050,13 +4211,13 @@
         <v>48</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>536</v>
-      </c>
       <c r="H48" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I48">
         <f>$B$24*$B$25+1</f>
@@ -4064,17 +4225,17 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="29"/>
+      <c r="C49" s="28"/>
     </row>
     <row r="50" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D50">
         <f>8*5*$B$19*$B$27*$B$29</f>
@@ -4085,10 +4246,10 @@
         <v>48</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>538</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>98</v>
@@ -4102,10 +4263,10 @@
       <c r="A51">
         <v>5</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="29"/>
+      <c r="C51" s="28"/>
       <c r="D51">
         <f>$B$24*$B$25*2*5</f>
         <v>240</v>
@@ -4118,7 +4279,7 @@
         <v>74</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>98</v>
@@ -4175,7 +4336,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -4210,10 +4371,10 @@
       <c r="A60">
         <v>7</v>
       </c>
-      <c r="B60" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="C60" s="29"/>
+      <c r="B60" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="C60" s="28"/>
       <c r="D60">
         <f>8*5</f>
         <v>40</v>
@@ -4225,7 +4386,7 @@
         <v>74</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H60" t="s">
         <v>95</v>
@@ -4238,10 +4399,10 @@
       <c r="A61">
         <v>8</v>
       </c>
-      <c r="B61" s="28" t="s">
-        <v>468</v>
-      </c>
-      <c r="C61" s="29"/>
+      <c r="B61" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="C61" s="28"/>
       <c r="D61">
         <f>8*5</f>
         <v>40</v>
@@ -4253,7 +4414,7 @@
         <v>74</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>97</v>
@@ -4266,10 +4427,10 @@
       <c r="A62">
         <v>9</v>
       </c>
-      <c r="B62" s="28" t="s">
-        <v>469</v>
-      </c>
-      <c r="C62" s="29"/>
+      <c r="B62" s="27" t="s">
+        <v>468</v>
+      </c>
+      <c r="C62" s="28"/>
       <c r="D62">
         <f>5*8*(2+2*B18)*B22*B23</f>
         <v>960</v>
@@ -4279,13 +4440,13 @@
         <v>48</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>540</v>
-      </c>
       <c r="H62" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I62">
         <f>(2+2*$B$18)*$B$22*$B$23+1</f>
@@ -4296,10 +4457,10 @@
       <c r="A63">
         <v>10</v>
       </c>
-      <c r="B63" s="28" t="s">
-        <v>470</v>
-      </c>
-      <c r="C63" s="29"/>
+      <c r="B63" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="C63" s="28"/>
       <c r="D63">
         <f>5*8*(2+2*B18)*B22*B23</f>
         <v>960</v>
@@ -4309,13 +4470,13 @@
         <v>48</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I63">
         <f>(2+2*$B$18)*$B$22*$B$23+1</f>
@@ -4326,10 +4487,10 @@
       <c r="A64">
         <v>36</v>
       </c>
-      <c r="B64" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C64" s="28"/>
+      <c r="B64" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" s="27"/>
       <c r="D64">
         <f>5*$B$27*$B$29</f>
         <v>120</v>
@@ -4339,10 +4500,10 @@
         <v>24</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>98</v>
@@ -4352,17 +4513,17 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="28" t="s">
+      <c r="B65" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="29"/>
+      <c r="C65" s="28"/>
     </row>
     <row r="66" spans="1:9" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>11</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D66">
         <f>5*8*$B$19*$B$28*$B$29</f>
@@ -4373,10 +4534,10 @@
         <v>24</v>
       </c>
       <c r="F66" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>543</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>98</v>
@@ -4390,10 +4551,10 @@
       <c r="A67">
         <v>12</v>
       </c>
-      <c r="B67" s="28" t="s">
+      <c r="B67" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="29"/>
+      <c r="C67" s="28"/>
       <c r="D67">
         <f>2*(2+2*B18)*B22*B23</f>
         <v>48</v>
@@ -4403,7 +4564,7 @@
         <v>48</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>98</v>
@@ -4461,7 +4622,7 @@
         <v>99</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>98</v>
@@ -4494,7 +4655,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -4507,7 +4668,7 @@
         <v>32</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4722,7 +4883,7 @@
         <v>89</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C92" s="18"/>
       <c r="D92" s="18"/>
@@ -4814,7 +4975,7 @@
         <v>81</v>
       </c>
       <c r="G97" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H97" s="18" t="s">
         <v>98</v>
@@ -4879,7 +5040,7 @@
         <v>101</v>
       </c>
       <c r="G100" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H100" s="18" t="s">
         <v>98</v>
@@ -4908,7 +5069,7 @@
         <v>101</v>
       </c>
       <c r="G101" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H101" s="18" t="s">
         <v>98</v>
@@ -4937,7 +5098,7 @@
         <v>101</v>
       </c>
       <c r="G102" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H102" s="18" t="s">
         <v>98</v>
@@ -4952,7 +5113,7 @@
       </c>
       <c r="B103" s="18"/>
       <c r="C103" s="19" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D103" s="18">
         <f>$B$86*4*5*8</f>
@@ -4963,10 +5124,10 @@
         <v>8</v>
       </c>
       <c r="F103" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="G103" s="19" t="s">
         <v>544</v>
-      </c>
-      <c r="G103" s="19" t="s">
-        <v>545</v>
       </c>
       <c r="H103" s="18" t="s">
         <v>98</v>
@@ -4981,7 +5142,7 @@
       </c>
       <c r="B104" s="18"/>
       <c r="C104" s="19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D104" s="18">
         <f>$B$86*4*5*8*$B$85</f>
@@ -4992,10 +5153,10 @@
         <v>16</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H104" s="18" t="s">
         <v>98</v>
@@ -5010,7 +5171,7 @@
       </c>
       <c r="B105" s="18"/>
       <c r="C105" s="19" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D105" s="18">
         <f>$B$86*4*5*8*$B$85</f>
@@ -5021,10 +5182,10 @@
         <v>16</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G105" s="19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H105" s="18" t="s">
         <v>98</v>
@@ -5039,7 +5200,7 @@
       </c>
       <c r="B106" s="18"/>
       <c r="C106" s="19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D106" s="18">
         <f>$B$86*4*5*8*$B$85</f>
@@ -5050,10 +5211,10 @@
         <v>16</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G106" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H106" s="18" t="s">
         <v>98</v>
@@ -5196,7 +5357,7 @@
       </c>
       <c r="B113" s="18"/>
       <c r="C113" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D113" s="18">
         <f>$B$84*4*8*5</f>
@@ -5207,7 +5368,7 @@
         <v>8</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G113" s="18"/>
       <c r="H113" s="18"/>
@@ -5219,7 +5380,7 @@
       </c>
       <c r="B114" s="18"/>
       <c r="C114" s="19" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D114" s="18">
         <f>$B$84*4*8*5*$B$85</f>
@@ -5230,7 +5391,7 @@
         <v>16</v>
       </c>
       <c r="F114" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G114" s="18"/>
       <c r="H114" s="18"/>
@@ -5242,7 +5403,7 @@
       </c>
       <c r="B115" s="18"/>
       <c r="C115" s="19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D115" s="18">
         <f t="shared" ref="D115:D116" si="0">$B$84*4*8*5*$B$85</f>
@@ -5253,7 +5414,7 @@
         <v>16</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G115" s="18"/>
       <c r="H115" s="18"/>
@@ -5265,7 +5426,7 @@
       </c>
       <c r="B116" s="18"/>
       <c r="C116" s="19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D116" s="18">
         <f t="shared" si="0"/>
@@ -5276,7 +5437,7 @@
         <v>16</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G116" s="18"/>
       <c r="H116" s="18"/>
@@ -5284,10 +5445,10 @@
     </row>
     <row r="117" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="18"/>
-      <c r="B117" s="26" t="s">
+      <c r="B117" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C117" s="27"/>
+      <c r="C117" s="32"/>
       <c r="D117" s="18"/>
       <c r="E117" s="18"/>
       <c r="F117" s="18"/>
@@ -5326,7 +5487,7 @@
       </c>
       <c r="F119" s="18"/>
       <c r="G119" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H119" s="18" t="s">
         <v>98</v>
@@ -5355,7 +5516,7 @@
         <v>108</v>
       </c>
       <c r="G120" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H120" s="18" t="s">
         <v>98</v>
@@ -5425,7 +5586,7 @@
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="18"/>
       <c r="B124" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C124" s="18"/>
       <c r="D124" s="18"/>
@@ -5532,15 +5693,15 @@
       </c>
       <c r="B133">
         <f>50*B37*0.2</f>
-        <v>138240</v>
+        <v>1658880</v>
       </c>
       <c r="C133" s="2">
         <f t="shared" si="2"/>
-        <v>38.4</v>
+        <v>460.8</v>
       </c>
       <c r="D133">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -5603,7 +5764,7 @@
       </c>
       <c r="D138" s="3">
         <f>SUM(D130:D133)</f>
-        <v>15.5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -5620,7 +5781,7 @@
       </c>
       <c r="B140">
         <f>MIN(D138/D139,B28*B29*B30*B31)</f>
-        <v>31</v>
+        <v>66</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -5651,12 +5812,12 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B146">
         <f>(((2*10+50)*$B$79*$B$80)*(3380+130*0.5*500+22*0.5*500))/(10^9)+((2*10+50)*$B$79*$B$80)*5/(10^6)</f>
@@ -5665,7 +5826,7 @@
     </row>
     <row r="147" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B147">
         <f>(((2*10+50)*$B$79*$B$80)*(120+45*0.5*500))/(10^9)</f>
@@ -5674,7 +5835,7 @@
     </row>
     <row r="148" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -5682,7 +5843,7 @@
     </row>
     <row r="149" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B149">
         <f>((2*10+50)*$B$79*$B$80*$B$82)*(1180+554*500)/(10^9)+((2*10+50)*$B$79*$B$80*$B$82)*5/(10^6)</f>
@@ -5691,7 +5852,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B150">
         <f>((2*10+50)*$B$79*$B$80*$B$82)*(115+500*(6+(2*5+10)+2*(2*8+12+8+5+3+4)))/(10^9)</f>
@@ -5700,7 +5861,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B151">
         <f>((2*10+50)*$B$88)*(5*8*20+3*20+2*20+2*20+200)/(10^9)</f>
@@ -5709,7 +5870,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B152">
         <f>(20*$B$88)*(5*8*20+10*20+200)/(10^9)</f>
@@ -5718,7 +5879,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B153">
         <f>($D$122)*250/(10^6)</f>
@@ -5727,7 +5888,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B154">
         <f>($E$122)/1000</f>
@@ -5745,12 +5906,12 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B158">
         <v>30</v>
@@ -5758,7 +5919,7 @@
     </row>
     <row r="159" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B159">
         <f>1000*(1280*720+200)/(10^9)</f>
@@ -5767,7 +5928,7 @@
     </row>
     <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B160">
         <f>((50*$B$28*$B$29*$B$31*$B$30)*(3380+130*0.5*500+22*0.5*500))/(10^9)+(50*$B$28*$B$29*$B$31*$B$30)*5/(10^6)</f>
@@ -5776,7 +5937,7 @@
     </row>
     <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B161">
         <f>((50*$B$28*$B$29*$B$31*$B$30)*(120+45*0.5*500))/(10^9)</f>
@@ -5785,7 +5946,7 @@
     </row>
     <row r="162" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -5793,7 +5954,7 @@
     </row>
     <row r="163" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B163">
         <f>(50*$B$31*$B$29*$B$28*$B$27*$B$30)*(1180+554*500)/(10^9)+(50*$B$31*$B$29*$B$28*$B$27*$B$30)*5/(10^6)</f>
@@ -5802,7 +5963,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B164">
         <f>(50*$B$31*$B$29*$B$28*$B$27*$B$30)*(115+500*(6+(2*5+10)+2*(2*8+12+8+5+3+4)))/(10^9)</f>
@@ -5811,25 +5972,25 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B165">
         <f>(50*$B$35+50*$B$37)*(5*8*20+3*20+2*20+2*20+200)/(10^9)</f>
-        <v>1.31328</v>
+        <v>9.9809280000000005</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B166">
         <f>(8*$B$37+6*$B$35)*(5*8*20+10*20+200)/(10^9)</f>
-        <v>0.19906560000000001</v>
+        <v>1.6588799999999999</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B167">
         <f>($D$71+$D$54)*250/(10^6)</f>
@@ -5838,7 +5999,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B168">
         <f>($E$54+$E$71)/1000</f>
@@ -5851,7 +6012,7 @@
       </c>
       <c r="B170" s="8">
         <f>ROUNDUP(SUM(B158:B168)/10,0)*10</f>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5877,15 +6038,15 @@
       </c>
       <c r="B174">
         <f>9*B37*0.1</f>
-        <v>12441.6</v>
+        <v>149299.20000000001</v>
       </c>
       <c r="C174" s="2">
         <f t="shared" ref="C174:C175" si="3">B174/3600</f>
-        <v>3.456</v>
+        <v>41.472000000000001</v>
       </c>
       <c r="D174">
         <f t="shared" ref="D174:D175" si="4">ROUNDUP(2*C174/24,0)/2</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5911,7 +6072,7 @@
       </c>
       <c r="D176" s="3">
         <f>SUM(D173:D174)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -6046,7 +6207,7 @@
       </c>
       <c r="D187" s="3">
         <f>D176+D181+D186</f>
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -6246,6 +6407,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B65:C65"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="C24:C25"/>
@@ -6253,14 +6421,1198 @@
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B65:C65"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="78.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B4">
+        <f>5*9</f>
+        <v>45</v>
+      </c>
+      <c r="C4">
+        <f>B4/8</f>
+        <v>5.625</v>
+      </c>
+      <c r="D4">
+        <f>C4/5</f>
+        <v>1.125</v>
+      </c>
+      <c r="E4">
+        <f>D4/4.33</f>
+        <v>0.25981524249422633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B5">
+        <f>5*8</f>
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C47" si="0">B5/8</f>
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D47" si="1">C5/5</f>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E47" si="2">D5/4.33</f>
+        <v>0.23094688221709006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B6">
+        <f>2*8</f>
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>9.237875288683603E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B7">
+        <f>2*9</f>
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>0.10392609699769054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>9.237875288683603E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>5.1963048498845268E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>4.6189376443418015E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>9.237875288683603E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>4.0415704387990761E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>407</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>4.6189376443418015E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B14">
+        <f>2.5*8</f>
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>0.11547344110854503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B15">
+        <f>4*8</f>
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>0.18475750577367206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B16">
+        <f>2.5*8</f>
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>0.11547344110854503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>2.8868360277136258E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B18">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>0.13856812933025403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>4.6189376443418015E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>413</v>
+      </c>
+      <c r="B20">
+        <f>5*0.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>1.4434180138568129E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>414</v>
+      </c>
+      <c r="B21">
+        <f>5*0.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>1.4434180138568129E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>415</v>
+      </c>
+      <c r="B22">
+        <f>15*0.5</f>
+        <v>7.5</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0.9375</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0.1875</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>4.3302540415704388E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>2.3094688221709007E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>417</v>
+      </c>
+      <c r="B24">
+        <f>14</f>
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>8.0831408775981523E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>418</v>
+      </c>
+      <c r="B25">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>3.4642032332563508E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>419</v>
+      </c>
+      <c r="B26">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>1.7321016166281754E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>420</v>
+      </c>
+      <c r="B27">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>2.3094688221709007E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>421</v>
+      </c>
+      <c r="B28">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>1.7321016166281754E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>422</v>
+      </c>
+      <c r="B29">
+        <f>15*0.5</f>
+        <v>7.5</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>0.9375</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>0.1875</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>4.3302540415704388E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>423</v>
+      </c>
+      <c r="B30">
+        <f>34*0.5</f>
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>2.125</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>9.8152424942263269E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B31">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>0.23094688221709006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>424</v>
+      </c>
+      <c r="B32">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>9.237875288683603E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>425</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>3.4642032332563508E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>426</v>
+      </c>
+      <c r="B34">
+        <f>14*1.5</f>
+        <v>21</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>2.625</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>0.12124711316397228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>427</v>
+      </c>
+      <c r="B35">
+        <f>6*1.5</f>
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>5.1963048498845268E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>428</v>
+      </c>
+      <c r="B36">
+        <f>3*1.5</f>
+        <v>4.5</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>0.5625</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>0.1125</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>2.5981524249422634E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>429</v>
+      </c>
+      <c r="B37">
+        <f>4*1.5</f>
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>3.4642032332563508E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>430</v>
+      </c>
+      <c r="B38">
+        <f>3*1.5</f>
+        <v>4.5</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>0.5625</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>0.1125</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>2.5981524249422634E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>431</v>
+      </c>
+      <c r="B39">
+        <f>15*1</f>
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>1.875</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>8.6605080831408776E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>432</v>
+      </c>
+      <c r="B40">
+        <f>26*1</f>
+        <v>26</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>0.65</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>0.15011547344110854</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>435</v>
+      </c>
+      <c r="B41">
+        <f>14*2</f>
+        <v>28</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>0.16166281755196305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>436</v>
+      </c>
+      <c r="B42">
+        <f>6*2</f>
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>6.9284064665127015E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>437</v>
+      </c>
+      <c r="B43">
+        <f>3*2</f>
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>3.4642032332563508E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>438</v>
+      </c>
+      <c r="B44">
+        <f>4*2</f>
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>4.6189376443418015E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>439</v>
+      </c>
+      <c r="B45">
+        <f>3*2</f>
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>3.4642032332563508E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>440</v>
+      </c>
+      <c r="B46">
+        <f>15*2</f>
+        <v>30</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>0.17321016166281755</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>441</v>
+      </c>
+      <c r="B47">
+        <f>34*2</f>
+        <v>68</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>1.7</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>0.39260969976905308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>395</v>
+      </c>
+      <c r="B49">
+        <f>SUM(B4:B47)</f>
+        <v>669</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49:E49" si="3">SUM(C4:C47)</f>
+        <v>83.625</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="3"/>
+        <v>16.725000000000001</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>3.8625866050808315</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>444</v>
+      </c>
+      <c r="B51" s="24">
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>456</v>
+      </c>
+      <c r="B52" s="24">
+        <f>B51+ROUNDUP(E49*4.33*7,0)</f>
+        <v>43676</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>457</v>
+      </c>
+      <c r="B53" s="25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>458</v>
+      </c>
+      <c r="B54" s="24">
+        <f>B52+B53+8</f>
+        <v>43696</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>447</v>
+      </c>
+      <c r="B56">
+        <f>'USAC-testing'!$D$203*8+USAC_vs_RANSAC!$D$65*8+Refinement_BA!$D$63*8+VFC_GMS_SOF!$D$64*8+Refinement_BA_stereo!$D$70*8+Correspondence_Pool!$D$117*8+Robustness!$D$206*8</f>
+        <v>58</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ref="C56:C58" si="4">B56/8</f>
+        <v>7.25</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ref="D56:D58" si="5">C56/5</f>
+        <v>1.45</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ref="E56:E58" si="6">D56/4.33</f>
+        <v>0.3348729792147806</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>445</v>
+      </c>
+      <c r="B57">
+        <f>'USAC-testing'!$B$190*'USAC-testing'!$D$192*8+USAC_vs_RANSAC!$B$57*USAC_vs_RANSAC!$D$59*8+Refinement_BA!$B$55*Refinement_BA!$D$57*8+VFC_GMS_SOF!$B$56*VFC_GMS_SOF!$D$58*8+Refinement_BA_stereo!$B$62*Refinement_BA_stereo!$D$64*8+Correspondence_Pool!$B$109*Correspondence_Pool!$D$111*8+Robustness!$B$198*Robustness!$D$200*8</f>
+        <v>60</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="6"/>
+        <v>0.3464203233256351</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>446</v>
+      </c>
+      <c r="B58">
+        <f>7*2</f>
+        <v>14</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="4"/>
+        <v>1.75</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="5"/>
+        <v>0.35</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="6"/>
+        <v>8.0831408775981523E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>395</v>
+      </c>
+      <c r="B60">
+        <f>SUM(B56:B58)</f>
+        <v>132</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ref="C60" si="7">B60/8</f>
+        <v>16.5</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ref="D60" si="8">C60/5</f>
+        <v>3.3</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ref="E60:E62" si="9">D60/4.33</f>
+        <v>0.76212471131639714</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>448</v>
+      </c>
+      <c r="B62">
+        <f>Overview!$C$10</f>
+        <v>1560</v>
+      </c>
+      <c r="C62">
+        <f>Overview!$B$10</f>
+        <v>65</v>
+      </c>
+      <c r="D62">
+        <f>C62/7</f>
+        <v>9.2857142857142865</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="9"/>
+        <v>2.1445067634444079</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>449</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>450</v>
+      </c>
+      <c r="E64">
+        <f>E62-E60</f>
+        <v>1.3823820521280108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>451</v>
+      </c>
+      <c r="E65">
+        <f>IF((E63-E64) &lt; 0.25,0.25,E63-E64)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>452</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <f>D66/4.33</f>
+        <v>0.23094688221709006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>453</v>
+      </c>
+      <c r="B68" s="24">
+        <f>B54+C62</f>
+        <v>43761</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>454</v>
+      </c>
+      <c r="B69" s="24">
+        <f>B68+ROUNDUP((E65+E66)*4.33*7,0)</f>
+        <v>43776</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>455</v>
+      </c>
+      <c r="B70" s="24">
+        <f>B69+ROUNDUP(3*4.33*7,0)+2+5+21+15</f>
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>459</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>460</v>
+      </c>
+      <c r="B72" s="24">
+        <f>B70+ROUNDUP(E71*4.33*7,0)</f>
+        <v>43941</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6322,12 +7674,12 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6363,7 +7715,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -6422,7 +7774,7 @@
         <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -6465,10 +7817,10 @@
       <c r="A33">
         <v>1</v>
       </c>
-      <c r="B33" s="28" t="s">
-        <v>481</v>
-      </c>
-      <c r="C33" s="29"/>
+      <c r="B33" s="27" t="s">
+        <v>480</v>
+      </c>
+      <c r="C33" s="28"/>
       <c r="D33">
         <f>8*5</f>
         <v>40</v>
@@ -6480,7 +7832,7 @@
         <v>74</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H33" t="s">
         <v>95</v>
@@ -6493,10 +7845,10 @@
       <c r="A34">
         <v>2</v>
       </c>
-      <c r="B34" s="28" t="s">
-        <v>482</v>
-      </c>
-      <c r="C34" s="29"/>
+      <c r="B34" s="27" t="s">
+        <v>481</v>
+      </c>
+      <c r="C34" s="28"/>
       <c r="D34">
         <f>8*5</f>
         <v>40</v>
@@ -6508,7 +7860,7 @@
         <v>74</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>97</v>
@@ -6521,10 +7873,10 @@
       <c r="A35">
         <v>3</v>
       </c>
-      <c r="B35" s="28" t="s">
-        <v>483</v>
-      </c>
-      <c r="C35" s="29"/>
+      <c r="B35" s="27" t="s">
+        <v>482</v>
+      </c>
+      <c r="C35" s="28"/>
       <c r="D35">
         <f>8*5*2</f>
         <v>80</v>
@@ -6534,13 +7886,13 @@
         <v>4</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>536</v>
-      </c>
       <c r="H35" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I35">
         <f>2+1</f>
@@ -6551,10 +7903,10 @@
       <c r="A36">
         <v>7</v>
       </c>
-      <c r="B36" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C36" s="28"/>
+      <c r="B36" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="27"/>
       <c r="D36">
         <f>5*$B$17*$B$19</f>
         <v>120</v>
@@ -6564,10 +7916,10 @@
         <v>24</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>98</v>
@@ -6577,17 +7929,17 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="29"/>
+      <c r="C37" s="28"/>
     </row>
     <row r="38" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D38">
         <f>8*5*$B$19*$B$17*$B$15</f>
@@ -6598,10 +7950,10 @@
         <v>48</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>538</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>98</v>
@@ -6615,10 +7967,10 @@
       <c r="A39">
         <v>5</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="29"/>
+      <c r="C39" s="28"/>
       <c r="D39">
         <f>2*2*5</f>
         <v>20</v>
@@ -6631,7 +7983,7 @@
         <v>74</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>98</v>
@@ -6688,7 +8040,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -6908,7 +8260,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B72">
         <f>50*$B$24*(5*8*20+3*20+2*20+2*20+200)/(10^9)</f>
@@ -6917,7 +8269,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B73">
         <f>6*$B$24*(5*8*20+10*20+200)/(10^9)</f>
@@ -6926,7 +8278,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B74">
         <f>$D$42*250/(10^6)</f>
@@ -6935,7 +8287,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B75">
         <f>$E$42/1000</f>
@@ -6968,8 +8320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:C34"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7020,12 +8372,12 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -7038,10 +8390,10 @@
         <v>149</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>594</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -7072,7 +8424,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -7126,7 +8478,7 @@
       </c>
       <c r="B26">
         <f>(B15*B16-1)*B18*B19*B20*B22+(B16+1)*B18*B19*B20*B22</f>
-        <v>22032</v>
+        <v>18144</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -7142,7 +8494,7 @@
         <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -7155,7 +8507,7 @@
     </row>
     <row r="33" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>91</v>
@@ -7180,10 +8532,10 @@
       <c r="A34">
         <v>1</v>
       </c>
-      <c r="B34" s="28" t="s">
-        <v>486</v>
-      </c>
-      <c r="C34" s="29"/>
+      <c r="B34" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="C34" s="28"/>
       <c r="D34">
         <f>8*5+5*5</f>
         <v>65</v>
@@ -7196,27 +8548,27 @@
         <v>74</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I34">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="29"/>
+      <c r="B35" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="28"/>
     </row>
     <row r="36" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D36">
         <f>(8*5+5*5)*$B$18*$B$20</f>
@@ -7227,10 +8579,10 @@
         <v>72</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>98</v>
@@ -7243,10 +8595,10 @@
       <c r="A37">
         <v>3</v>
       </c>
-      <c r="B37" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="C37" s="29"/>
+      <c r="B37" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="28"/>
       <c r="D37">
         <v>2</v>
       </c>
@@ -7254,10 +8606,10 @@
         <v>2</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>98</v>
@@ -7290,12 +8642,12 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -7319,32 +8671,32 @@
     </row>
     <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B47">
         <f>50*$B$26*0.3</f>
-        <v>330480</v>
+        <v>272160</v>
       </c>
       <c r="C47" s="2">
         <f t="shared" ref="C47" si="0">B47/3600</f>
-        <v>91.8</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="D47">
         <f t="shared" ref="D47" si="1">ROUNDUP(2*C47/24,0)/2</f>
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B48">
         <f>3*$B$26*0.1</f>
-        <v>6609.6</v>
+        <v>5443.2000000000007</v>
       </c>
       <c r="C48" s="2">
         <f>B48/3600</f>
-        <v>1.8360000000000001</v>
+        <v>1.5120000000000002</v>
       </c>
       <c r="D48">
         <f>ROUNDUP(2*C48/24,0)/2</f>
@@ -7353,7 +8705,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B49">
         <f>$D$38*0.2</f>
@@ -7370,7 +8722,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B50">
         <f>$E$38*12</f>
@@ -7391,7 +8743,7 @@
       </c>
       <c r="D52">
         <f>SUM(D47:D50)</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -7439,7 +8791,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -7451,7 +8803,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B62">
         <f>$I$38*60*3</f>
@@ -7515,25 +8867,25 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B70">
         <f>50*$B$26*(5*8*20+3*20+2*20+2*20+200)/(10^9)</f>
-        <v>1.2558240000000001</v>
+        <v>1.034208</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B71">
         <f>3*$B$26*(5*8*20+10*20+200)/(10^9)</f>
-        <v>7.9315200000000002E-2</v>
+        <v>6.5318399999999999E-2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B72">
         <f>$D$38*250/(10^6)</f>
@@ -7542,7 +8894,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B73">
         <f>$E$38/1000</f>
@@ -7594,17 +8946,17 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -7624,12 +8976,12 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -7639,35 +8991,35 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -7687,7 +9039,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -7746,7 +9098,7 @@
         <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -7756,7 +9108,7 @@
     </row>
     <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>91</v>
@@ -7781,10 +9133,10 @@
       <c r="A35">
         <v>1</v>
       </c>
-      <c r="B35" s="28" t="s">
-        <v>489</v>
-      </c>
-      <c r="C35" s="29"/>
+      <c r="B35" s="27" t="s">
+        <v>488</v>
+      </c>
+      <c r="C35" s="28"/>
       <c r="D35">
         <f>8*5</f>
         <v>40</v>
@@ -7797,7 +9149,7 @@
         <v>74</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>97</v>
@@ -7810,10 +9162,10 @@
       <c r="A36">
         <v>2</v>
       </c>
-      <c r="B36" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="C36" s="28"/>
+      <c r="B36" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" s="27"/>
       <c r="D36">
         <f>5+$B$21*$B$22</f>
         <v>11</v>
@@ -7823,10 +9175,10 @@
         <v>11</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>98</v>
@@ -7836,17 +9188,17 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C37" s="29"/>
+      <c r="B37" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="28"/>
     </row>
     <row r="38" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D38">
         <f>8*5*$B$21*$B$20*$B$22</f>
@@ -7857,10 +9209,10 @@
         <v>96</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>98</v>
@@ -7873,10 +9225,10 @@
       <c r="A39">
         <v>4</v>
       </c>
-      <c r="B39" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="C39" s="29"/>
+      <c r="B39" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="28"/>
       <c r="D39">
         <v>2</v>
       </c>
@@ -7884,10 +9236,10 @@
         <v>2</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>98</v>
@@ -7920,7 +9272,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -7944,7 +9296,7 @@
     </row>
     <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B48">
         <f>50*$B$27*0.3</f>
@@ -7961,7 +9313,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B49">
         <f>3*$B$27*0.1</f>
@@ -7978,7 +9330,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B50">
         <f>$D$40*0.2</f>
@@ -7995,7 +9347,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B51">
         <f>$E$40*12</f>
@@ -8064,7 +9416,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -8076,7 +9428,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B63">
         <f>$I$40*60*3</f>
@@ -8140,7 +9492,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B71">
         <f>50*$B$27*(5*8*20+3*20+2*20+2*20+200)/(10^9)</f>
@@ -8149,7 +9501,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B72">
         <f>4*$B$27*(5*8*20+10*20+200)/(10^9)</f>
@@ -8158,7 +9510,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B73">
         <f>$D$40*250/(10^6)</f>
@@ -8167,7 +9519,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B74">
         <f>$E$40/1000</f>
@@ -8198,8 +9550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:C41"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8215,7 +9567,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -8225,12 +9577,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -8240,12 +9592,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -8260,37 +9612,37 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8300,18 +9652,18 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>154</v>
+        <v>595</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -8337,7 +9689,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -8391,7 +9743,7 @@
       </c>
       <c r="B33">
         <f>(B22*B23-1)*B25*B26*B27*B29+(B23+1)*B25*B26*B27*B29</f>
-        <v>22032</v>
+        <v>16848</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -8407,7 +9759,7 @@
         <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -8420,7 +9772,7 @@
     </row>
     <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>91</v>
@@ -8445,10 +9797,10 @@
       <c r="A41">
         <v>1</v>
       </c>
-      <c r="B41" s="28" t="s">
-        <v>486</v>
-      </c>
-      <c r="C41" s="29"/>
+      <c r="B41" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="C41" s="28"/>
       <c r="D41">
         <f>8*5+5*5</f>
         <v>65</v>
@@ -8461,27 +9813,27 @@
         <v>74</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I41">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C42" s="29"/>
+      <c r="B42" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="28"/>
     </row>
     <row r="43" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D43">
         <f>(8*5+5*5)*$B$25*$B$27</f>
@@ -8492,10 +9844,10 @@
         <v>72</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>98</v>
@@ -8508,10 +9860,10 @@
       <c r="A44">
         <v>3</v>
       </c>
-      <c r="B44" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="C44" s="29"/>
+      <c r="B44" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="C44" s="28"/>
       <c r="D44">
         <v>1</v>
       </c>
@@ -8519,10 +9871,10 @@
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>98</v>
@@ -8555,12 +9907,12 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -8584,32 +9936,32 @@
     </row>
     <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B54">
         <f>50*$B$33*0.4</f>
-        <v>440640</v>
+        <v>336960</v>
       </c>
       <c r="C54" s="2">
         <f t="shared" ref="C54" si="0">B54/3600</f>
-        <v>122.4</v>
+        <v>93.6</v>
       </c>
       <c r="D54">
         <f t="shared" ref="D54" si="1">ROUNDUP(2*C54/24,0)/2</f>
-        <v>5.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B55">
         <f>3*$B$33*0.1</f>
-        <v>6609.6</v>
+        <v>5054.4000000000005</v>
       </c>
       <c r="C55" s="2">
         <f>B55/3600</f>
-        <v>1.8360000000000001</v>
+        <v>1.4040000000000001</v>
       </c>
       <c r="D55">
         <f>ROUNDUP(2*C55/24,0)/2</f>
@@ -8618,7 +9970,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B56">
         <f>$D$45*0.2</f>
@@ -8635,7 +9987,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B57">
         <f>$E$45*12</f>
@@ -8656,7 +10008,7 @@
       </c>
       <c r="D59">
         <f>SUM(D54:D57)</f>
-        <v>6.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -8704,7 +10056,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -8716,7 +10068,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B69">
         <f>$I$45*60*3</f>
@@ -8780,25 +10132,25 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B77">
         <f>50*$B$33*(5*8*20+3*20+2*20+2*20+200)/(10^9)</f>
-        <v>1.2558240000000001</v>
+        <v>0.96033599999999997</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B78">
         <f>3*$B$33*(5*8*20+10*20+200)/(10^9)</f>
-        <v>7.9315200000000002E-2</v>
+        <v>6.06528E-2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B79">
         <f>$D$45*250/(10^6)</f>
@@ -8807,7 +10159,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B80">
         <f>$E$45/1000</f>
@@ -8837,8 +10189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I133"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8854,7 +10206,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -8864,17 +10216,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -8884,80 +10236,80 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
+      <c r="A22" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
@@ -8966,14 +10318,14 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -8990,53 +10342,53 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B29">
         <f>(15-1)/2+1</f>
         <v>8</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B30">
         <f>(1000-200)/100+1+(2000-1000)/200+(5000-2000)/500+(10000-5000)/1000+(20000-10000)/2000+(30000-20000)/5000</f>
         <v>32</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B31">
         <f>(0.8-0.1)/0.1+1</f>
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B32">
         <f>(300-20)/20+1</f>
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>23</v>
       </c>
@@ -9053,7 +10405,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -9092,7 +10444,7 @@
     </row>
     <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B41">
         <f>$B$29*$B$30*$B$34*$B$36*$B$38</f>
@@ -9101,7 +10453,7 @@
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B42">
         <f>$B$31*$B$32*$B$34*$B$36*$B$38</f>
@@ -9110,7 +10462,7 @@
     </row>
     <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B43">
         <f>$B$34*3</f>
@@ -9130,7 +10482,7 @@
         <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -9143,7 +10495,7 @@
     </row>
     <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>91</v>
@@ -9168,10 +10520,10 @@
       <c r="A51">
         <v>1</v>
       </c>
-      <c r="B51" s="28" t="s">
-        <v>492</v>
-      </c>
-      <c r="C51" s="29"/>
+      <c r="B51" s="27" t="s">
+        <v>491</v>
+      </c>
+      <c r="C51" s="28"/>
       <c r="D51">
         <f>8*5</f>
         <v>40</v>
@@ -9181,10 +10533,10 @@
         <v>8</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>97</v>
@@ -9194,17 +10546,17 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="C52" s="29"/>
+      <c r="B52" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C52" s="28"/>
     </row>
     <row r="53" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D53">
         <f>8*5*$B$34*$B$36</f>
@@ -9215,10 +10567,10 @@
         <v>48</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>98</v>
@@ -9232,7 +10584,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D54">
         <f>8*5*$B$34*$B$36</f>
@@ -9243,10 +10595,10 @@
         <v>48</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>98</v>
@@ -9260,7 +10612,7 @@
         <v>4</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D55">
         <f>8*$B$34*$B$36*$B$29</f>
@@ -9271,7 +10623,7 @@
         <v>48</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="300" x14ac:dyDescent="0.25">
@@ -9279,7 +10631,7 @@
         <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D56">
         <f>8*$B$34*$B$36*$B$29</f>
@@ -9290,10 +10642,10 @@
         <v>48</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>559</v>
       </c>
       <c r="H56" t="s">
         <v>98</v>
@@ -9306,10 +10658,10 @@
       <c r="A57">
         <v>6</v>
       </c>
-      <c r="B57" s="28" t="s">
-        <v>495</v>
-      </c>
-      <c r="C57" s="29"/>
+      <c r="B57" s="27" t="s">
+        <v>494</v>
+      </c>
+      <c r="C57" s="28"/>
       <c r="D57">
         <f>5*8*$B$29</f>
         <v>320</v>
@@ -9319,17 +10671,17 @@
         <v>2</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7</v>
       </c>
-      <c r="B58" s="28" t="s">
-        <v>496</v>
-      </c>
-      <c r="C58" s="29"/>
+      <c r="B58" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="C58" s="28"/>
       <c r="D58">
         <f>5*8</f>
         <v>40</v>
@@ -9338,17 +10690,17 @@
         <v>2</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="213" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>8</v>
       </c>
-      <c r="B59" s="28" t="s">
-        <v>497</v>
-      </c>
-      <c r="C59" s="28"/>
+      <c r="B59" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="C59" s="27"/>
       <c r="D59">
         <f>5*8</f>
         <v>40</v>
@@ -9357,10 +10709,10 @@
         <v>2</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="H59" t="s">
         <v>98</v>
@@ -9373,10 +10725,10 @@
       <c r="A60">
         <v>9</v>
       </c>
-      <c r="B60" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="C60" s="29"/>
+      <c r="B60" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="C60" s="28"/>
       <c r="D60">
         <f>5*$B$29*$B$30</f>
         <v>1280</v>
@@ -9386,17 +10738,17 @@
         <v>256</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>10</v>
       </c>
-      <c r="B61" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="C61" s="29"/>
+      <c r="B61" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="C61" s="28"/>
       <c r="D61">
         <f>5*$B$29*$B$30</f>
         <v>1280</v>
@@ -9406,10 +10758,10 @@
         <v>256</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="H61" t="s">
         <v>98</v>
@@ -9442,12 +10794,12 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -9456,11 +10808,11 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
+      <c r="A68" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
       <c r="D68" s="1" t="s">
         <v>91</v>
       </c>
@@ -9484,10 +10836,10 @@
       <c r="A69">
         <v>11</v>
       </c>
-      <c r="B69" s="28" t="s">
-        <v>492</v>
-      </c>
-      <c r="C69" s="29"/>
+      <c r="B69" s="27" t="s">
+        <v>491</v>
+      </c>
+      <c r="C69" s="28"/>
       <c r="D69">
         <f>8*5</f>
         <v>40</v>
@@ -9500,7 +10852,7 @@
         <v>74</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>97</v>
@@ -9510,17 +10862,17 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="C70" s="29"/>
+      <c r="B70" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C70" s="28"/>
     </row>
     <row r="71" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>12</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D71">
         <f>8*5*$B$34*$B$36</f>
@@ -9531,10 +10883,10 @@
         <v>48</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>98</v>
@@ -9547,10 +10899,10 @@
       <c r="A72">
         <v>13</v>
       </c>
-      <c r="B72" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="C72" s="29"/>
+      <c r="B72" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="C72" s="28"/>
       <c r="D72">
         <f>5*$B$31*$B$32</f>
         <v>600</v>
@@ -9560,10 +10912,10 @@
         <v>120</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>98</v>
@@ -9596,7 +10948,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -9605,11 +10957,11 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
+      <c r="A78" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
       <c r="D78" s="1" t="s">
         <v>91</v>
       </c>
@@ -9633,10 +10985,10 @@
       <c r="A79">
         <v>14</v>
       </c>
-      <c r="B79" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="C79" s="29"/>
+      <c r="B79" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="C79" s="28"/>
       <c r="D79">
         <f>$B$34*8*5</f>
         <v>320</v>
@@ -9646,13 +10998,13 @@
         <v>16</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -9662,10 +11014,10 @@
       <c r="A80">
         <v>15</v>
       </c>
-      <c r="B80" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="C80" s="29"/>
+      <c r="B80" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="C80" s="28"/>
       <c r="D80">
         <v>1</v>
       </c>
@@ -9697,7 +11049,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -9755,7 +11107,7 @@
     </row>
     <row r="92" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B92">
         <f>150*$B$41*1</f>
@@ -9772,7 +11124,7 @@
     </row>
     <row r="93" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B93">
         <f>150*$B$42*1</f>
@@ -9789,7 +11141,7 @@
     </row>
     <row r="94" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B94">
         <f>50*$B$34*2</f>
@@ -9806,7 +11158,7 @@
     </row>
     <row r="96" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B96">
         <f>10*$B$41*0.1</f>
@@ -9823,7 +11175,7 @@
     </row>
     <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B97">
         <f>3*$B$42*0.1</f>
@@ -9840,7 +11192,7 @@
     </row>
     <row r="98" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B98">
         <f>2*$B$43*0.1</f>
@@ -9857,7 +11209,7 @@
     </row>
     <row r="99" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B99">
         <f>$D$62*0.2</f>
@@ -9874,7 +11226,7 @@
     </row>
     <row r="100" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B100">
         <f>$D$73*0.2</f>
@@ -9891,7 +11243,7 @@
     </row>
     <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B101">
         <f>$D$81*0.2</f>
@@ -9908,7 +11260,7 @@
     </row>
     <row r="102" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B102">
         <f>$E$62*12</f>
@@ -9925,7 +11277,7 @@
     </row>
     <row r="103" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B103">
         <f>$E$73*12</f>
@@ -9942,7 +11294,7 @@
     </row>
     <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B104">
         <f>$E$81*12</f>
@@ -10011,7 +11363,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C115">
         <v>4</v>
@@ -10023,7 +11375,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B116">
         <f>($I$62+$I$73+$I$81)*60*5</f>
@@ -10087,7 +11439,7 @@
     </row>
     <row r="124" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B124">
         <f>((150*$B$35*$B$36*$B$38*$B$37)*(3380+130*0.5*500+22*0.5*500))/(10^9)+(150*$B$35*$B$36*$B$38*$B$37)*5/(10^6)</f>
@@ -10096,7 +11448,7 @@
     </row>
     <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B125">
         <f>((150*$B$35*$B$36*$B$38*$B$37)*(120+45*0.5*500))/(10^9)</f>
@@ -10105,7 +11457,7 @@
     </row>
     <row r="126" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B126">
         <f>150*2*B35*B36*B37*B38*(120+45*0.2*500)/(10^9)</f>
@@ -10114,7 +11466,7 @@
     </row>
     <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B127">
         <f>(150*$B$38*$B$36*$B$35*$B$34*$B$37)*(1180+554*500)/(10^9)+(150*$B$38*$B$36*$B$35*$B$34*$B$37)*5/(10^6)</f>
@@ -10123,7 +11475,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B128">
         <f>(150*$B$38*$B$36*$B$35*$B$34*$B$37)*(115+500*(6+(2*5+10)+2*(2*8+12+8+5+3+4)))/(10^9)</f>
@@ -10132,7 +11484,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B129">
         <f>(150*$B$41+150*$B$42+50*$B$34)*(5*8*20+3*20+2*20+2*20+200)/(10^9)</f>
@@ -10141,7 +11493,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B130">
         <f>(10*$B$41+3*$B$42+2*$B$43)*(5*8*20+10*20+200)/(10^9)</f>
@@ -10150,7 +11502,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B131">
         <f>($D$73+$D$62+$D$81)*250/(10^6)</f>
@@ -10159,7 +11511,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B132">
         <f>($E$62+$E$73+$E$81)/1000</f>
@@ -10177,6 +11529,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
     <mergeCell ref="A78:C78"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B80:C80"/>
@@ -10185,13 +11544,6 @@
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="A68:C68"/>
     <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10202,8 +11554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I222"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="B169" sqref="B169"/>
+    <sheetView topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10219,7 +11571,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -10229,22 +11581,22 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -10254,67 +11606,67 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -10324,7 +11676,7 @@
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B27">
         <f>(3.5-0.5)/1+1</f>
@@ -10339,7 +11691,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -10350,7 +11702,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -10361,7 +11713,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -10373,107 +11725,107 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
-      <c r="C32" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="D32" s="28"/>
+      <c r="C32" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="D32" s="27"/>
     </row>
     <row r="33" spans="1:4" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B33">
         <v>14</v>
       </c>
-      <c r="C33" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="D33" s="28"/>
+      <c r="C33" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="D33" s="27"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B35">
         <f>(0.5-0.1)/0.1+1</f>
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B36">
         <f>(0.55-0.05)/0.1+1</f>
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B37">
         <f>(0.55-0.1)/0.075+1</f>
         <v>7.0000000000000009</v>
       </c>
       <c r="C37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B38">
         <f>(0.8-0.3)/0.1+1</f>
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B39">
         <f>(0.8-0.4)/0.1+1</f>
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -10481,69 +11833,69 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C44" s="12"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B48">
         <f>(0.75-0.25)/0.1+1</f>
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B49">
         <f>(0.5-0.05)/0.075+1</f>
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B53">
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B56">
         <f>$B$35*$B$36*$B$37*$B$38*$B$27*$B$29*$B$31*$B$32*$B$39</f>
@@ -10552,7 +11904,7 @@
     </row>
     <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B57">
         <f>$B$42*$B$27*$B$29*$B$31*$B$32</f>
@@ -10561,7 +11913,7 @@
     </row>
     <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B58">
         <f>$B$27*$B$29*$B$31*$B$32</f>
@@ -10570,7 +11922,7 @@
     </row>
     <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B59">
         <f>$B$47*$B$48*$B$49*$B$27*$B$29*$B$31*$B$32</f>
@@ -10579,7 +11931,7 @@
     </row>
     <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B60">
         <f>$B$53*$B$27*$B$29*$B$31*$B$32</f>
@@ -10588,7 +11940,7 @@
     </row>
     <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B61">
         <f>$B$27*$B$29*$B$31*$B$33</f>
@@ -10614,7 +11966,7 @@
         <v>89</v>
       </c>
       <c r="B66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -10627,7 +11979,7 @@
     </row>
     <row r="69" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>91</v>
@@ -10650,7 +12002,7 @@
     </row>
     <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C70" s="15"/>
     </row>
@@ -10659,7 +12011,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -10668,13 +12020,13 @@
         <v>0</v>
       </c>
       <c r="F71" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="I71">
         <f>$B$32+1</f>
@@ -10686,7 +12038,7 @@
         <v>2</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -10695,13 +12047,13 @@
         <v>0</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I72">
         <f>$B$29*$B$32+$B$29</f>
@@ -10713,7 +12065,7 @@
         <v>3</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -10722,13 +12074,13 @@
         <v>0</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I73">
         <f>$B$27*$B$32+$B$27+1</f>
@@ -10737,7 +12089,7 @@
     </row>
     <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C74" s="1"/>
       <c r="F74" s="1"/>
@@ -10747,7 +12099,7 @@
         <v>4</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -10756,13 +12108,13 @@
         <v>0</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G75" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="I75">
         <v>3</v>
@@ -10770,7 +12122,7 @@
     </row>
     <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C76" s="1"/>
     </row>
@@ -10779,7 +12131,7 @@
         <v>5</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -10788,13 +12140,13 @@
         <v>0</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I77">
         <v>3</v>
@@ -10824,17 +12176,17 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -10844,7 +12196,7 @@
     </row>
     <row r="87" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>91</v>
@@ -10867,7 +12219,7 @@
     </row>
     <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C88" s="15"/>
     </row>
@@ -10876,7 +12228,7 @@
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D89">
         <f>$B$32*5*8</f>
@@ -10887,13 +12239,13 @@
         <v>8</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I89">
         <f>$B$32+1</f>
@@ -10905,7 +12257,7 @@
         <v>7</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D90">
         <f>5*8*$B$42*$B$32</f>
@@ -10916,13 +12268,13 @@
         <v>48</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I90">
         <f>$B$29*$B$32+1</f>
@@ -10934,7 +12286,7 @@
         <v>8</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D91">
         <f>5*8*$B$42*$B$32</f>
@@ -10945,13 +12297,13 @@
         <v>48</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I91">
         <f>$B$27*$B$32+2</f>
@@ -10963,7 +12315,7 @@
         <v>9</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D92">
         <f>5*8*$B$42*$B$32</f>
@@ -10974,13 +12326,13 @@
         <v>48</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I92">
         <f>$B$29*$B$32+3</f>
@@ -10992,7 +12344,7 @@
         <v>10</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -11028,17 +12380,17 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -11048,7 +12400,7 @@
     </row>
     <row r="101" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>91</v>
@@ -11073,10 +12425,10 @@
       <c r="A102">
         <v>11</v>
       </c>
-      <c r="B102" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="C102" s="28"/>
+      <c r="B102" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="C102" s="27"/>
       <c r="D102">
         <f>5*8*$B$32</f>
         <v>160</v>
@@ -11086,13 +12438,13 @@
         <v>8</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I102">
         <v>4</v>
@@ -11102,10 +12454,10 @@
       <c r="A103">
         <v>12</v>
       </c>
-      <c r="B103" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="C103" s="28"/>
+      <c r="B103" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="C103" s="27"/>
       <c r="D103">
         <f>5*8*$B$42*$B$32</f>
         <v>960</v>
@@ -11115,13 +12467,13 @@
         <v>48</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I103">
         <v>2</v>
@@ -11131,10 +12483,10 @@
       <c r="A104">
         <v>13</v>
       </c>
-      <c r="B104" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="C104" s="28"/>
+      <c r="B104" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="C104" s="27"/>
       <c r="D104">
         <f>5*8*$B$42*$B$32</f>
         <v>960</v>
@@ -11144,13 +12496,13 @@
         <v>48</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I104">
         <v>2</v>
@@ -11160,10 +12512,10 @@
       <c r="A105">
         <v>14</v>
       </c>
-      <c r="B105" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="C105" s="28"/>
+      <c r="B105" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="C105" s="27"/>
       <c r="D105">
         <f>5*8*$B$42*$B$32</f>
         <v>960</v>
@@ -11173,7 +12525,7 @@
         <v>48</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -11202,17 +12554,17 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -11222,7 +12574,7 @@
     </row>
     <row r="114" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>91</v>
@@ -11245,7 +12597,7 @@
     </row>
     <row r="115" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C115" s="15"/>
     </row>
@@ -11255,7 +12607,7 @@
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D116">
         <f>5*$B$32</f>
@@ -11266,13 +12618,13 @@
         <v>4</v>
       </c>
       <c r="F116" t="s">
+        <v>347</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="H116" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="I116">
         <f>$B$32+$B$32*2+$B$32</f>
@@ -11284,7 +12636,7 @@
         <v>16</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D117">
         <f>5*8*$B$32</f>
@@ -11295,13 +12647,13 @@
         <v>8</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I117">
         <f>2*$B$32+2*$B$31+4</f>
@@ -11313,7 +12665,7 @@
         <v>17</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D118">
         <f>5*8*$B$42*$B$32</f>
@@ -11324,13 +12676,13 @@
         <v>48</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I118">
         <f>2*$B$29+2</f>
@@ -11342,7 +12694,7 @@
         <v>18</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D119">
         <f>5*8*$B$42*$B$32</f>
@@ -11353,13 +12705,13 @@
         <v>48</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I119">
         <f>2*$B$27+2</f>
@@ -11371,7 +12723,7 @@
         <v>19</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D120">
         <f>5*8*$B$42*$B$32</f>
@@ -11382,7 +12734,7 @@
         <v>48</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -11392,7 +12744,7 @@
         <v>20</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D121">
         <f>5*$B$32</f>
@@ -11403,13 +12755,13 @@
         <v>4</v>
       </c>
       <c r="F121" t="s">
+        <v>347</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="H121" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="I121">
         <f>$B$32+$B$32*2+$B$32</f>
@@ -11421,7 +12773,7 @@
         <v>21</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D122">
         <f>5*8*$B$32</f>
@@ -11432,13 +12784,13 @@
         <v>8</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I122">
         <f>2*$B$32+2*$B$31+4</f>
@@ -11450,7 +12802,7 @@
         <v>22</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D123">
         <f>5*8*$B$42*$B$32</f>
@@ -11461,13 +12813,13 @@
         <v>48</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I123">
         <f>2*$B$29+2</f>
@@ -11479,7 +12831,7 @@
         <v>23</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D124">
         <f>5*8*$B$42*$B$32</f>
@@ -11490,13 +12842,13 @@
         <v>48</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I124">
         <f>2*$B$27+2</f>
@@ -11508,7 +12860,7 @@
         <v>24</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D125">
         <f>5*8*$B$42*$B$32</f>
@@ -11519,7 +12871,7 @@
         <v>48</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -11548,17 +12900,17 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -11568,7 +12920,7 @@
     </row>
     <row r="134" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>91</v>
@@ -11591,7 +12943,7 @@
     </row>
     <row r="135" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C135" s="15"/>
     </row>
@@ -11600,7 +12952,7 @@
         <v>25</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D136">
         <f>5*8*$B$32</f>
@@ -11611,13 +12963,13 @@
         <v>8</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I136">
         <v>2</v>
@@ -11628,7 +12980,7 @@
         <v>26</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D137">
         <f>2*5*8*$B$32</f>
@@ -11639,13 +12991,13 @@
         <v>16</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I137">
         <f>$B$29+1</f>
@@ -11657,7 +13009,7 @@
         <v>27</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D138">
         <f>2*5*8*$B$32</f>
@@ -11668,13 +13020,13 @@
         <v>16</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I138">
         <f>$B$32+$B$27</f>
@@ -11686,7 +13038,7 @@
         <v>28</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -11719,17 +13071,17 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -11739,7 +13091,7 @@
     </row>
     <row r="148" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>91</v>
@@ -11764,10 +13116,10 @@
       <c r="A149">
         <v>29</v>
       </c>
-      <c r="B149" s="28" t="s">
-        <v>518</v>
-      </c>
-      <c r="C149" s="28"/>
+      <c r="B149" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="C149" s="27"/>
       <c r="D149">
         <f>8*$B$33</f>
         <v>112</v>
@@ -11776,13 +13128,13 @@
         <v>2</v>
       </c>
       <c r="F149" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G149" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="G149" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="H149" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I149">
         <v>1</v>
@@ -11792,10 +13144,10 @@
       <c r="A150">
         <v>30</v>
       </c>
-      <c r="B150" s="28" t="s">
-        <v>519</v>
-      </c>
-      <c r="C150" s="28"/>
+      <c r="B150" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="C150" s="27"/>
       <c r="D150">
         <f>5*8*$B$33</f>
         <v>560</v>
@@ -11805,13 +13157,13 @@
         <v>28</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I150">
         <f>$B$29</f>
@@ -11822,10 +13174,10 @@
       <c r="A151">
         <v>31</v>
       </c>
-      <c r="B151" s="28" t="s">
-        <v>520</v>
-      </c>
-      <c r="C151" s="28"/>
+      <c r="B151" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="C151" s="27"/>
       <c r="D151">
         <f>5*8*$B$33</f>
         <v>560</v>
@@ -11835,13 +13187,13 @@
         <v>28</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I151">
         <f>$B$27</f>
@@ -11850,7 +13202,7 @@
     </row>
     <row r="152" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C152" s="1"/>
       <c r="F152" s="1"/>
@@ -11860,7 +13212,7 @@
         <v>32</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -11869,13 +13221,13 @@
         <v>0</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I153">
         <f>(3*3+3)*2</f>
@@ -11884,7 +13236,7 @@
     </row>
     <row r="154" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C154" s="1"/>
     </row>
@@ -11893,7 +13245,7 @@
         <v>33</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -11902,13 +13254,13 @@
         <v>0</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I155">
         <f>(3*3+3)*2</f>
@@ -11917,7 +13269,7 @@
     </row>
     <row r="156" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C156" s="1"/>
     </row>
@@ -11926,7 +13278,7 @@
         <v>34</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -11935,13 +13287,13 @@
         <v>0</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I157">
         <f>(3*3+3)*2</f>
@@ -11972,17 +13324,17 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -12040,7 +13392,7 @@
     </row>
     <row r="169" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B169">
         <f>((150+50)/2)*$B$56*0.6</f>
@@ -12057,7 +13409,7 @@
     </row>
     <row r="170" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B170">
         <f>((150+50)/2)*$B$57*2.5</f>
@@ -12074,7 +13426,7 @@
     </row>
     <row r="171" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B171">
         <f>((150+50)/2)*$B$58*0.6</f>
@@ -12091,7 +13443,7 @@
     </row>
     <row r="172" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B172">
         <f>((150+50)/2)*$B$59*0.6</f>
@@ -12108,7 +13460,7 @@
     </row>
     <row r="173" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B173">
         <f>((150+50)/2)*$B$60*0.6</f>
@@ -12125,7 +13477,7 @@
     </row>
     <row r="174" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B174">
         <f>((150+50)/2)*$B$61*0.6</f>
@@ -12142,7 +13494,7 @@
     </row>
     <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B176">
         <f>5*$B$56*0.1</f>
@@ -12159,7 +13511,7 @@
     </row>
     <row r="177" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B177">
         <f>5*$B$57*0.1</f>
@@ -12176,7 +13528,7 @@
     </row>
     <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B178">
         <f>4*$B$58*0.1</f>
@@ -12193,7 +13545,7 @@
     </row>
     <row r="179" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B179">
         <f>10*$B$59*0.1</f>
@@ -12210,7 +13562,7 @@
     </row>
     <row r="180" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B180">
         <f>4*$B$60*0.1</f>
@@ -12227,7 +13579,7 @@
     </row>
     <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B181">
         <f>6*$B$61*0.1</f>
@@ -12244,7 +13596,7 @@
     </row>
     <row r="182" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B182">
         <f>$D$78*0.2</f>
@@ -12261,7 +13613,7 @@
     </row>
     <row r="183" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B183">
         <f>$D$94*0.2</f>
@@ -12278,7 +13630,7 @@
     </row>
     <row r="184" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B184">
         <f>$D$106*0.2</f>
@@ -12295,7 +13647,7 @@
     </row>
     <row r="185" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B185">
         <f>$D$126*0.2</f>
@@ -12312,7 +13664,7 @@
     </row>
     <row r="186" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B186">
         <f>$D$140*0.2</f>
@@ -12329,7 +13681,7 @@
     </row>
     <row r="187" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B187">
         <f>$D$158*0.2</f>
@@ -12346,7 +13698,7 @@
     </row>
     <row r="188" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B188">
         <f>$E$78*12</f>
@@ -12363,7 +13715,7 @@
     </row>
     <row r="189" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B189">
         <f>$E$94*12</f>
@@ -12380,7 +13732,7 @@
     </row>
     <row r="190" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B190">
         <f>$E$106*12</f>
@@ -12397,7 +13749,7 @@
     </row>
     <row r="191" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B191">
         <f>$E$126*12</f>
@@ -12414,7 +13766,7 @@
     </row>
     <row r="192" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B192">
         <f>$E$140*12</f>
@@ -12431,7 +13783,7 @@
     </row>
     <row r="193" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B193">
         <f>$E$158*12</f>
@@ -12500,7 +13852,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C204">
         <v>4</v>
@@ -12512,7 +13864,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B205">
         <f>($I$78+$I$94+$I$106+$I$126+$I$140+$I$158)*60*3</f>
@@ -12576,7 +13928,7 @@
     </row>
     <row r="213" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B213">
         <f>(((150*4+50*11+200*7)*$B$28*$B$29*$B$31)*(3380+130*0.5*500+22*0.5*500))/(10^9)+((150*4+50*11+200*7)*$B$28*$B$29*$B$31)*5/(10^6)</f>
@@ -12585,7 +13937,7 @@
     </row>
     <row r="214" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B214">
         <f>(((150*4+50*11+200*7)*$B$28*$B$29*$B$31)*(120+45*0.5*500))/(10^9)</f>
@@ -12594,7 +13946,7 @@
     </row>
     <row r="215" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B215">
         <f>2*(150*4+50*11+200*7)*$B$28*$B$29*$B$31*(120+45*0.2*500)/(10^9)</f>
@@ -12603,7 +13955,7 @@
     </row>
     <row r="216" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B216">
         <f>((150*4+50*11+200*7)*$B$28*$B$29*$B$31*$B$27)*(1180+554*500)/(10^9)+((150*4+50*11+200*7)*$B$28*$B$29*$B$31*$B$27)*5/(10^6)</f>
@@ -12612,7 +13964,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B217">
         <f>((150*4+50*11+200*7)*$B$28*$B$29*$B$31*$B$27)*(115+500*(6+(2*5+10)+2*(2*8+12+8+5+3+4)))/(10^9)</f>
@@ -12621,7 +13973,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B218">
         <f>(((150+50)/2)*($B$56+$B$57+$B$58+$B$59+$B$60)+((7*200+7*50)/14)*$B$61)*(5*8*20+3*20+2*20+2*20+200)/(10^9)</f>
@@ -12630,7 +13982,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B219">
         <f>(5*$B$56+5*$B$57+4*$B$58+10*$B$59+4*$B$60+6*$B$61)*(5*8*20+10*20+200)/(10^9)</f>
@@ -12639,7 +13991,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B220">
         <f>($D$78+$D$94+$D$106+$D$126+$D$140+$D$158)*250/(10^6)</f>
@@ -12648,7 +14000,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B221">
         <f>($E$78+$E$94+$E$106+$E$126+$E$140+$E$158)/1000</f>
@@ -12683,10 +14035,766 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="69.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B23">
+        <f>(3.5-0.5)/1+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <f>(0.9-0.1)/0.2+1</f>
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>619</v>
+      </c>
+      <c r="D28" s="27"/>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>600</v>
+      </c>
+      <c r="B31">
+        <f>B23*B24*B25*B26*B27*B28*B29</f>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>601</v>
+      </c>
+      <c r="B32">
+        <f>B23*B24*B25*B26*B27*B28</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <f>B31+B32</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" t="s">
+        <v>93</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>607</v>
+      </c>
+      <c r="C43" s="28"/>
+      <c r="D43">
+        <f>9*5</f>
+        <v>45</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>614</v>
+      </c>
+      <c r="C44" s="28"/>
+      <c r="D44">
+        <f>9*5*($B$29+1)</f>
+        <v>405</v>
+      </c>
+      <c r="E44">
+        <f>2*2*($B$29+1)</f>
+        <v>36</v>
+      </c>
+      <c r="F44" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>611</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45">
+        <f>9*5</f>
+        <v>45</v>
+      </c>
+      <c r="E45">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>618</v>
+      </c>
+      <c r="C46" s="28"/>
+      <c r="D46">
+        <f>9*5*$B$27</f>
+        <v>225</v>
+      </c>
+      <c r="E46">
+        <f>2*2*$B$27</f>
+        <v>20</v>
+      </c>
+      <c r="F46" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="I46">
+        <f>$B$27+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D48">
+        <f>9*5*$B$27*2</f>
+        <v>450</v>
+      </c>
+      <c r="E48">
+        <f>2*2*$B$27*2</f>
+        <v>40</v>
+      </c>
+      <c r="F48" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="I48">
+        <f>$B$27*2+2</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>624</v>
+      </c>
+      <c r="C49" s="28"/>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I49">
+        <f>$B$27+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>626</v>
+      </c>
+      <c r="C50" s="28"/>
+      <c r="D50">
+        <f>3*($B$29+1)</f>
+        <v>27</v>
+      </c>
+      <c r="E50">
+        <f>2*($B$29+1)</f>
+        <v>18</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="I50">
+        <f>$B$29+1+3</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C51" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51">
+        <f>SUM(D43:D50)</f>
+        <v>1200</v>
+      </c>
+      <c r="E51">
+        <f>SUM(E43:E50)</f>
+        <v>125</v>
+      </c>
+      <c r="I51">
+        <f>SUM(I43:I50)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B59">
+        <f>(2*180+120)*$B$34*0.3</f>
+        <v>155520</v>
+      </c>
+      <c r="C59" s="26">
+        <f t="shared" ref="C59" si="0">B59/3600</f>
+        <v>43.2</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ref="D59" si="1">ROUNDUP(2*C59/24,0)/2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60">
+        <f>7*$B$34*0.1</f>
+        <v>756</v>
+      </c>
+      <c r="C60" s="26">
+        <f>B60/3600</f>
+        <v>0.21</v>
+      </c>
+      <c r="D60">
+        <f>ROUNDUP(2*C60/24,0)/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61">
+        <f>$D$51*0.2</f>
+        <v>240</v>
+      </c>
+      <c r="C61" s="26">
+        <f>B61/3600</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D61">
+        <f>ROUNDUP(4*C61/24,0)/4</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62">
+        <f>$E$51*12</f>
+        <v>1500</v>
+      </c>
+      <c r="C62" s="26">
+        <f>B62/3600</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D62">
+        <f>ROUNDUP(4*C62/24,0)/4</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64">
+        <f>SUM(D59:D62)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65">
+        <f>ROUNDUP(4*D64/'USAC-testing'!$B$141,0)/4</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67">
+        <v>1.5</v>
+      </c>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D69" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D71" s="3">
+        <f>(D65+D69)*B67</f>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <f>ROUNDUP(4*C73/8,0)/4</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B74">
+        <f>$I$51*60*3</f>
+        <v>7200</v>
+      </c>
+      <c r="C74" s="26">
+        <f>B74/3600</f>
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <f>ROUNDUP(4*C74/8,0)/4</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" s="3">
+        <f>SUM(D73:D74)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="11"/>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77">
+        <f>MIN((B67+1),ROUNDDOWN($D$59,0))*15</f>
+        <v>30</v>
+      </c>
+      <c r="D77">
+        <f>ROUNDUP(4*C77/24,0)/4</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>126</v>
+      </c>
+      <c r="D79">
+        <f>D71+D75+D77</f>
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D80" s="9">
+        <f>ROUNDDOWN(D79/5,0)*7+(D79-ROUNDDOWN(D79/5,0)*5)</f>
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>254</v>
+      </c>
+      <c r="B82">
+        <f>50*$B$34*(5*8*20+3*20+2*20+2*20+200)/(10^9)</f>
+        <v>6.1559999999999997E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B83">
+        <f>3*$B$34*(5*8*20+10*20+200)/(10^9)</f>
+        <v>3.888E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>255</v>
+      </c>
+      <c r="B84">
+        <f>$D$51*250/(10^6)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>256</v>
+      </c>
+      <c r="B85">
+        <f>$E$51/1000</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B86" s="8">
+        <f>ROUNDUP(SUM(B82:B85)/5,0)*5</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12696,12 +14804,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B3" s="8">
         <f>'USAC-testing'!B141</f>
@@ -12719,11 +14827,11 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B5" s="8">
-        <f>'USAC-testing'!B170+USAC_vs_RANSAC!B76+Refinement_BA!B74+VFC_GMS_SOF!B75+Refinement_BA_stereo!B81+Correspondence_Pool!B133+Robustness!B222</f>
-        <v>310</v>
+        <f>'USAC-testing'!B170+USAC_vs_RANSAC!B76+Refinement_BA!B74+VFC_GMS_SOF!B75+Refinement_BA_stereo!B81+Correspondence_Pool!B133+Robustness!B222+USAC_vs_Autocalib!B86</f>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12734,31 +14842,31 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B8">
-        <f>'USAC-testing'!D207+USAC_vs_RANSAC!D69+Refinement_BA!D67+VFC_GMS_SOF!D68+Refinement_BA_stereo!D74+Correspondence_Pool!D121+Robustness!D210</f>
-        <v>51.5</v>
+        <f>'USAC-testing'!D207+USAC_vs_RANSAC!D69+Refinement_BA!D67+VFC_GMS_SOF!D68+Refinement_BA_stereo!D74+Correspondence_Pool!D121+Robustness!D210+USAC_vs_Autocalib!D79</f>
+        <v>54.375</v>
       </c>
       <c r="C8">
         <f>B8*24</f>
-        <v>1236</v>
+        <v>1305</v>
       </c>
       <c r="D8">
         <f>B8/7</f>
-        <v>7.3571428571428568</v>
+        <v>7.7678571428571432</v>
       </c>
       <c r="E8">
         <f>D8/4.33</f>
-        <v>1.6991092048828769</v>
+        <v>1.7939623886506104</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12767,1270 +14875,94 @@
       </c>
       <c r="B9">
         <f>ROUNDDOWN(B8/5,0)*7+(B8-ROUNDDOWN(B8/5,0)*5)</f>
-        <v>71.5</v>
+        <v>74.375</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:C10" si="0">B9*24</f>
-        <v>1716</v>
+        <v>1785</v>
       </c>
       <c r="D9">
         <f t="shared" ref="D9:D10" si="1">B9/7</f>
-        <v>10.214285714285714</v>
+        <v>10.625</v>
       </c>
       <c r="E9">
         <f t="shared" ref="E9:E10" si="2">D9/4.33</f>
-        <v>2.3589574397888482</v>
+        <v>2.4538106235565817</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B10" s="8">
         <f>ROUNDUP(B8+(B9-B8)/2,0)</f>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C10" s="8">
         <f t="shared" si="0"/>
-        <v>1488</v>
+        <v>1560</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>8.8571428571428577</v>
+        <v>9.2857142857142865</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>2.0455295282085122</v>
+        <v>2.1445067634444079</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B13">
-        <f>'USAC-testing'!B33+'USAC-testing'!B37+USAC_vs_RANSAC!B24+Refinement_BA!B26+VFC_GMS_SOF!B27+Refinement_BA_stereo!B33+Correspondence_Pool!B41+Correspondence_Pool!B42+Correspondence_Pool!B43+Robustness!B56+Robustness!B57+Robustness!B58+Robustness!B59+Robustness!B60+Robustness!B61</f>
-        <v>1392744.0000000002</v>
+        <f>'USAC-testing'!B33+'USAC-testing'!B37+USAC_vs_RANSAC!B24+Refinement_BA!B26+VFC_GMS_SOF!B27+Refinement_BA_stereo!B33+Correspondence_Pool!B41+Correspondence_Pool!B42+Correspondence_Pool!B43+Robustness!B56+Robustness!B57+Robustness!B58+Robustness!B59+Robustness!B60+Robustness!B61+USAC_vs_Autocalib!B34</f>
+        <v>1536816.0000000002</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B15">
         <f>C10*3.492*0.89</f>
-        <v>4624.5254399999994</v>
+        <v>4848.2928000000002</v>
+      </c>
+      <c r="C15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D15" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B16">
         <f>B5*0.119*0.89*ROUNDUP(E10,0)</f>
-        <v>98.496300000000019</v>
+        <v>103.26224999999999</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>396</v>
+        <v>632</v>
       </c>
       <c r="B17">
-        <f>SUM(B15:B16)</f>
-        <v>4723.0217399999992</v>
+        <f>B5*0.09*0.89</f>
+        <v>26.032499999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>395</v>
+      </c>
+      <c r="B18">
+        <f>SUM(B15:B17)</f>
+        <v>4977.5875500000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E72"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="78.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>443</v>
-      </c>
-      <c r="E3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B4">
-        <f>5*9</f>
-        <v>45</v>
-      </c>
-      <c r="C4">
-        <f>B4/8</f>
-        <v>5.625</v>
-      </c>
-      <c r="D4">
-        <f>C4/5</f>
-        <v>1.125</v>
-      </c>
-      <c r="E4">
-        <f>D4/4.33</f>
-        <v>0.25981524249422633</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>401</v>
-      </c>
-      <c r="B5">
-        <f>5*8</f>
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:C47" si="0">B5/8</f>
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D47" si="1">C5/5</f>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E47" si="2">D5/4.33</f>
-        <v>0.23094688221709006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>402</v>
-      </c>
-      <c r="B6">
-        <f>2*8</f>
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
-        <v>9.237875288683603E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>399</v>
-      </c>
-      <c r="B7">
-        <f>2*9</f>
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>2.25</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>0.45</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>0.10392609699769054</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B8">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>9.237875288683603E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>1.125</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
-        <v>5.1963048498845268E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>405</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
-        <v>4.6189376443418015E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B11">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
-        <v>9.237875288683603E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0.875</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>4.0415704387990761E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>408</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="2"/>
-        <v>4.6189376443418015E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B14">
-        <f>2.5*8</f>
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
-        <v>0.11547344110854503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B15">
-        <f>4*8</f>
-        <v>32</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="2"/>
-        <v>0.18475750577367206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B16">
-        <f>2.5*8</f>
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="2"/>
-        <v>0.11547344110854503</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="2"/>
-        <v>2.8868360277136258E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B18">
-        <v>24</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="2"/>
-        <v>0.13856812933025403</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B19">
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="2"/>
-        <v>4.6189376443418015E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>414</v>
-      </c>
-      <c r="B20">
-        <f>5*0.5</f>
-        <v>2.5</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>0.3125</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="2"/>
-        <v>1.4434180138568129E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>415</v>
-      </c>
-      <c r="B21">
-        <f>5*0.5</f>
-        <v>2.5</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>0.3125</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="2"/>
-        <v>1.4434180138568129E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>416</v>
-      </c>
-      <c r="B22">
-        <f>15*0.5</f>
-        <v>7.5</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>0.9375</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>0.1875</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="2"/>
-        <v>4.3302540415704388E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="2"/>
-        <v>2.3094688221709007E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>418</v>
-      </c>
-      <c r="B24">
-        <f>14</f>
-        <v>14</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>0.35</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="2"/>
-        <v>8.0831408775981523E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>419</v>
-      </c>
-      <c r="B25">
-        <f>6</f>
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>0.15</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="2"/>
-        <v>3.4642032332563508E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>420</v>
-      </c>
-      <c r="B26">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="2"/>
-        <v>1.7321016166281754E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>421</v>
-      </c>
-      <c r="B27">
-        <f>4</f>
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="2"/>
-        <v>2.3094688221709007E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>422</v>
-      </c>
-      <c r="B28">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="2"/>
-        <v>1.7321016166281754E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>423</v>
-      </c>
-      <c r="B29">
-        <f>15*0.5</f>
-        <v>7.5</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>0.9375</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="1"/>
-        <v>0.1875</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="2"/>
-        <v>4.3302540415704388E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>424</v>
-      </c>
-      <c r="B30">
-        <f>34*0.5</f>
-        <v>17</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>2.125</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="1"/>
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="2"/>
-        <v>9.8152424942263269E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B31">
-        <v>40</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="2"/>
-        <v>0.23094688221709006</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>425</v>
-      </c>
-      <c r="B32">
-        <v>16</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="2"/>
-        <v>9.237875288683603E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>426</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="1"/>
-        <v>0.15</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="2"/>
-        <v>3.4642032332563508E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>427</v>
-      </c>
-      <c r="B34">
-        <f>14*1.5</f>
-        <v>21</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>2.625</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="1"/>
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="2"/>
-        <v>0.12124711316397228</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>428</v>
-      </c>
-      <c r="B35">
-        <f>6*1.5</f>
-        <v>9</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>1.125</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="1"/>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="2"/>
-        <v>5.1963048498845268E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>429</v>
-      </c>
-      <c r="B36">
-        <f>3*1.5</f>
-        <v>4.5</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>0.5625</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="1"/>
-        <v>0.1125</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="2"/>
-        <v>2.5981524249422634E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>430</v>
-      </c>
-      <c r="B37">
-        <f>4*1.5</f>
-        <v>6</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="1"/>
-        <v>0.15</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="2"/>
-        <v>3.4642032332563508E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>431</v>
-      </c>
-      <c r="B38">
-        <f>3*1.5</f>
-        <v>4.5</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
-        <v>0.5625</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="1"/>
-        <v>0.1125</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="2"/>
-        <v>2.5981524249422634E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>432</v>
-      </c>
-      <c r="B39">
-        <f>15*1</f>
-        <v>15</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="0"/>
-        <v>1.875</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="1"/>
-        <v>0.375</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="2"/>
-        <v>8.6605080831408776E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>433</v>
-      </c>
-      <c r="B40">
-        <f>26*1</f>
-        <v>26</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="0"/>
-        <v>3.25</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="1"/>
-        <v>0.65</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="2"/>
-        <v>0.15011547344110854</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>436</v>
-      </c>
-      <c r="B41">
-        <f>14*2</f>
-        <v>28</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="2"/>
-        <v>0.16166281755196305</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>437</v>
-      </c>
-      <c r="B42">
-        <f>6*2</f>
-        <v>12</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="2"/>
-        <v>6.9284064665127015E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>438</v>
-      </c>
-      <c r="B43">
-        <f>3*2</f>
-        <v>6</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="1"/>
-        <v>0.15</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="2"/>
-        <v>3.4642032332563508E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>439</v>
-      </c>
-      <c r="B44">
-        <f>4*2</f>
-        <v>8</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="2"/>
-        <v>4.6189376443418015E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>440</v>
-      </c>
-      <c r="B45">
-        <f>3*2</f>
-        <v>6</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="1"/>
-        <v>0.15</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="2"/>
-        <v>3.4642032332563508E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>441</v>
-      </c>
-      <c r="B46">
-        <f>15*2</f>
-        <v>30</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="2"/>
-        <v>0.17321016166281755</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>442</v>
-      </c>
-      <c r="B47">
-        <f>34*2</f>
-        <v>68</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="1"/>
-        <v>1.7</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="2"/>
-        <v>0.39260969976905308</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>396</v>
-      </c>
-      <c r="B49">
-        <f>SUM(B4:B47)</f>
-        <v>669</v>
-      </c>
-      <c r="C49">
-        <f t="shared" ref="C49:E49" si="3">SUM(C4:C47)</f>
-        <v>83.625</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="3"/>
-        <v>16.725000000000001</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="3"/>
-        <v>3.8625866050808315</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>445</v>
-      </c>
-      <c r="B51" s="24">
-        <v>43558</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>457</v>
-      </c>
-      <c r="B52" s="24">
-        <f>B51+ROUNDUP(E49*4.33*7,0)</f>
-        <v>43676</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>458</v>
-      </c>
-      <c r="B53" s="25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>459</v>
-      </c>
-      <c r="B54" s="24">
-        <f>B52+B53+8</f>
-        <v>43696</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>448</v>
-      </c>
-      <c r="B56">
-        <f>'USAC-testing'!$D$203*8+USAC_vs_RANSAC!$D$65*8+Refinement_BA!$D$63*8+VFC_GMS_SOF!$D$64*8+Refinement_BA_stereo!$D$70*8+Correspondence_Pool!$D$117*8+Robustness!$D$206*8</f>
-        <v>58</v>
-      </c>
-      <c r="C56">
-        <f t="shared" ref="C56:C58" si="4">B56/8</f>
-        <v>7.25</v>
-      </c>
-      <c r="D56">
-        <f t="shared" ref="D56:D58" si="5">C56/5</f>
-        <v>1.45</v>
-      </c>
-      <c r="E56">
-        <f t="shared" ref="E56:E58" si="6">D56/4.33</f>
-        <v>0.3348729792147806</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>446</v>
-      </c>
-      <c r="B57">
-        <f>'USAC-testing'!$B$190*'USAC-testing'!$D$192*8+USAC_vs_RANSAC!$B$57*USAC_vs_RANSAC!$D$59*8+Refinement_BA!$B$55*Refinement_BA!$D$57*8+VFC_GMS_SOF!$B$56*VFC_GMS_SOF!$D$58*8+Refinement_BA_stereo!$B$62*Refinement_BA_stereo!$D$64*8+Correspondence_Pool!$B$109*Correspondence_Pool!$D$111*8+Robustness!$B$198*Robustness!$D$200*8</f>
-        <v>60</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="4"/>
-        <v>7.5</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="6"/>
-        <v>0.3464203233256351</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>447</v>
-      </c>
-      <c r="B58">
-        <f>7*2</f>
-        <v>14</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="4"/>
-        <v>1.75</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="5"/>
-        <v>0.35</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="6"/>
-        <v>8.0831408775981523E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>396</v>
-      </c>
-      <c r="B60">
-        <f>SUM(B56:B58)</f>
-        <v>132</v>
-      </c>
-      <c r="C60">
-        <f t="shared" ref="C60" si="7">B60/8</f>
-        <v>16.5</v>
-      </c>
-      <c r="D60">
-        <f t="shared" ref="D60" si="8">C60/5</f>
-        <v>3.3</v>
-      </c>
-      <c r="E60">
-        <f t="shared" ref="E60:E62" si="9">D60/4.33</f>
-        <v>0.76212471131639714</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>449</v>
-      </c>
-      <c r="B62">
-        <f>Overview!$C$10</f>
-        <v>1488</v>
-      </c>
-      <c r="C62">
-        <f>Overview!$B$10</f>
-        <v>62</v>
-      </c>
-      <c r="D62">
-        <f>C62/7</f>
-        <v>8.8571428571428577</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="9"/>
-        <v>2.0455295282085122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>450</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>451</v>
-      </c>
-      <c r="E64">
-        <f>E62-E60</f>
-        <v>1.2834048168921151</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>452</v>
-      </c>
-      <c r="E65">
-        <f>IF((E63-E64) &lt; 0.25,0.25,E63-E64)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>453</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <f>D66/4.33</f>
-        <v>0.23094688221709006</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>454</v>
-      </c>
-      <c r="B68" s="24">
-        <f>B54+C62</f>
-        <v>43758</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>455</v>
-      </c>
-      <c r="B69" s="24">
-        <f>B68+ROUNDUP((E65+E66)*4.33*7,0)</f>
-        <v>43773</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>456</v>
-      </c>
-      <c r="B70" s="24">
-        <f>B69+ROUNDUP(3*4.33*7,0)+2+5+21+15</f>
-        <v>43907</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>460</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>461</v>
-      </c>
-      <c r="B72" s="24">
-        <f>B70+ROUNDUP(E71*4.33*7,0)</f>
-        <v>43938</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>